--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8155393728165563</v>
+        <v>0.815539372816556</v>
       </c>
       <c r="D2">
         <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.8438356686776808</v>
+        <v>0.8438356686776807</v>
       </c>
       <c r="F2">
-        <v>0.7788657062966474</v>
+        <v>0.7788657062966473</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.8450939074338512</v>
+        <v>0.8450939074338509</v>
       </c>
       <c r="K2">
         <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.8580051900135679</v>
+        <v>0.8580051900135677</v>
       </c>
       <c r="M2">
         <v>0.7945995347080249</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8470365899864465</v>
+        <v>0.8470365899864435</v>
       </c>
       <c r="D3">
         <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.8709849967591665</v>
+        <v>0.8709849967591637</v>
       </c>
       <c r="F3">
-        <v>0.8168945030935919</v>
+        <v>0.8168945030935885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04955216868654</v>
+        <v>1.049552168686541</v>
       </c>
       <c r="J3">
-        <v>0.8727876062524531</v>
+        <v>0.8727876062524506</v>
       </c>
       <c r="K3">
         <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>0.8835864431806886</v>
+        <v>0.8835864431806859</v>
       </c>
       <c r="M3">
-        <v>0.8305668358717866</v>
+        <v>0.8305668358717831</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8643374531022457</v>
+        <v>0.8643374531022447</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.028866762049403</v>
       </c>
       <c r="E4">
-        <v>0.8859414047127346</v>
+        <v>0.8859414047127337</v>
       </c>
       <c r="F4">
-        <v>0.8376388935769328</v>
+        <v>0.8376388935769316</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>0.8879877139015511</v>
+        <v>0.8879877139015503</v>
       </c>
       <c r="K4">
         <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>0.8976438559185171</v>
+        <v>0.8976438559185164</v>
       </c>
       <c r="M4">
-        <v>0.8501926713727838</v>
+        <v>0.8501926713727829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8710794069243574</v>
+        <v>0.8710794069243577</v>
       </c>
       <c r="D5">
-        <v>1.029773185199952</v>
+        <v>1.029773185199953</v>
       </c>
       <c r="E5">
-        <v>0.8917769491017056</v>
+        <v>0.8917769491017058</v>
       </c>
       <c r="F5">
-        <v>0.8457007701761825</v>
+        <v>0.8457007701761828</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05066628811199</v>
+        <v>1.050666288111991</v>
       </c>
       <c r="J5">
         <v>0.8939078014425523</v>
       </c>
       <c r="K5">
-        <v>1.039309142812777</v>
+        <v>1.039309142812778</v>
       </c>
       <c r="L5">
-        <v>0.9031214384141689</v>
+        <v>0.9031214384141694</v>
       </c>
       <c r="M5">
-        <v>0.8578197317340739</v>
+        <v>0.8578197317340744</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8721843280133114</v>
+        <v>0.8721843280133094</v>
       </c>
       <c r="D6">
-        <v>1.029924063371671</v>
+        <v>1.029924063371672</v>
       </c>
       <c r="E6">
-        <v>0.8927336764502993</v>
+        <v>0.8927336764502973</v>
       </c>
       <c r="F6">
-        <v>0.8470209609845089</v>
+        <v>0.8470209609845063</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050719259225519</v>
       </c>
       <c r="J6">
-        <v>0.8948778286566438</v>
+        <v>0.8948778286566414</v>
       </c>
       <c r="K6">
-        <v>1.039422122093321</v>
+        <v>1.039422122093322</v>
       </c>
       <c r="L6">
-        <v>0.9040190794841211</v>
+        <v>0.904019079484119</v>
       </c>
       <c r="M6">
-        <v>0.8590686818355293</v>
+        <v>0.8590686818355268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8644294333583301</v>
+        <v>0.8644294333583293</v>
       </c>
       <c r="D7">
-        <v>1.028878962103937</v>
+        <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>0.8860209931352144</v>
+        <v>0.8860209931352137</v>
       </c>
       <c r="F7">
-        <v>0.8377489581980646</v>
+        <v>0.8377489581980636</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>0.8880684949672155</v>
+        <v>0.8880684949672147</v>
       </c>
       <c r="K7">
         <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>0.8977185900745425</v>
+        <v>0.8977185900745419</v>
       </c>
       <c r="M7">
-        <v>0.8502968015796989</v>
+        <v>0.8502968015796981</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8269913258674702</v>
+        <v>0.8269913258674692</v>
       </c>
       <c r="D8">
-        <v>1.024316734034517</v>
+        <v>1.024316734034516</v>
       </c>
       <c r="E8">
-        <v>0.8536937541769677</v>
+        <v>0.8536937541769666</v>
       </c>
       <c r="F8">
-        <v>0.7927374837563071</v>
+        <v>0.792737483756306</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.048692855248919</v>
       </c>
       <c r="J8">
-        <v>0.8551652328561217</v>
+        <v>0.8551652328561207</v>
       </c>
       <c r="K8">
-        <v>1.035177093591589</v>
+        <v>1.035177093591588</v>
       </c>
       <c r="L8">
-        <v>0.8673030924933296</v>
+        <v>0.8673030924933286</v>
       </c>
       <c r="M8">
-        <v>0.8077164822973507</v>
+        <v>0.8077164822973494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D9">
         <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F9">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K9">
         <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M9">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D10">
         <v>1.015507248178864</v>
       </c>
       <c r="E10">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F10">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J10">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K10">
         <v>1.028353643349236</v>
       </c>
       <c r="L10">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M10">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D11">
         <v>1.015507248178864</v>
       </c>
       <c r="E11">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F11">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J11">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K11">
         <v>1.028353643349236</v>
       </c>
       <c r="L11">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M11">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D12">
         <v>1.015507248178864</v>
       </c>
       <c r="E12">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F12">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J12">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K12">
         <v>1.028353643349236</v>
       </c>
       <c r="L12">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M12">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D13">
         <v>1.015507248178864</v>
       </c>
       <c r="E13">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F13">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J13">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K13">
         <v>1.028353643349236</v>
       </c>
       <c r="L13">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M13">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D14">
         <v>1.015507248178864</v>
       </c>
       <c r="E14">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F14">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J14">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K14">
         <v>1.028353643349236</v>
       </c>
       <c r="L14">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M14">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D15">
         <v>1.015507248178864</v>
       </c>
       <c r="E15">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F15">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J15">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K15">
         <v>1.028353643349236</v>
       </c>
       <c r="L15">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M15">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D16">
         <v>1.015507248178864</v>
       </c>
       <c r="E16">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F16">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J16">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K16">
         <v>1.028353643349236</v>
       </c>
       <c r="L16">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M16">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D17">
         <v>1.015507248178864</v>
       </c>
       <c r="E17">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F17">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J17">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K17">
         <v>1.028353643349236</v>
       </c>
       <c r="L17">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M17">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D18">
         <v>1.015507248178864</v>
       </c>
       <c r="E18">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F18">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J18">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K18">
         <v>1.028353643349236</v>
       </c>
       <c r="L18">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M18">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D19">
         <v>1.015507248178864</v>
       </c>
       <c r="E19">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F19">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J19">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K19">
         <v>1.028353643349236</v>
       </c>
       <c r="L19">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M19">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D20">
         <v>1.015507248178864</v>
       </c>
       <c r="E20">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F20">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J20">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K20">
         <v>1.028353643349236</v>
       </c>
       <c r="L20">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M20">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D21">
         <v>1.015507248178864</v>
       </c>
       <c r="E21">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F21">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J21">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K21">
         <v>1.028353643349236</v>
       </c>
       <c r="L21">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M21">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D22">
         <v>1.015507248178864</v>
       </c>
       <c r="E22">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F22">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J22">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K22">
         <v>1.028353643349236</v>
       </c>
       <c r="L22">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M22">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D23">
         <v>1.015507248178864</v>
       </c>
       <c r="E23">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F23">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J23">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K23">
         <v>1.028353643349236</v>
       </c>
       <c r="L23">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M23">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D24">
         <v>1.015507248178864</v>
       </c>
       <c r="E24">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F24">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J24">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K24">
         <v>1.028353643349236</v>
       </c>
       <c r="L24">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M24">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6959317127886582</v>
+        <v>0.6959317127886567</v>
       </c>
       <c r="D25">
         <v>1.015507248178864</v>
       </c>
       <c r="E25">
-        <v>0.7420833836586932</v>
+        <v>0.7420833836586916</v>
       </c>
       <c r="F25">
-        <v>0.6284023105815996</v>
+        <v>0.6284023105815971</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J25">
-        <v>0.7398864097707789</v>
+        <v>0.7398864097707775</v>
       </c>
       <c r="K25">
         <v>1.028353643349236</v>
       </c>
       <c r="L25">
-        <v>0.7614285610235916</v>
+        <v>0.76142856102359</v>
       </c>
       <c r="M25">
-        <v>0.6529706770195051</v>
+        <v>0.6529706770195027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.815539372816556</v>
+        <v>0.8155393728165563</v>
       </c>
       <c r="D2">
         <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.8438356686776807</v>
+        <v>0.8438356686776808</v>
       </c>
       <c r="F2">
-        <v>0.7788657062966473</v>
+        <v>0.7788657062966474</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.8450939074338509</v>
+        <v>0.8450939074338512</v>
       </c>
       <c r="K2">
         <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.8580051900135677</v>
+        <v>0.8580051900135679</v>
       </c>
       <c r="M2">
         <v>0.7945995347080249</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8470365899864435</v>
+        <v>0.8470365899864465</v>
       </c>
       <c r="D3">
         <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.8709849967591637</v>
+        <v>0.8709849967591665</v>
       </c>
       <c r="F3">
-        <v>0.8168945030935885</v>
+        <v>0.8168945030935919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049552168686541</v>
+        <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>0.8727876062524506</v>
+        <v>0.8727876062524531</v>
       </c>
       <c r="K3">
         <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>0.8835864431806859</v>
+        <v>0.8835864431806886</v>
       </c>
       <c r="M3">
-        <v>0.8305668358717831</v>
+        <v>0.8305668358717866</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8643374531022447</v>
+        <v>0.8643374531022457</v>
       </c>
       <c r="D4">
-        <v>1.028866762049403</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>0.8859414047127337</v>
+        <v>0.8859414047127346</v>
       </c>
       <c r="F4">
-        <v>0.8376388935769316</v>
+        <v>0.8376388935769328</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>0.8879877139015503</v>
+        <v>0.8879877139015511</v>
       </c>
       <c r="K4">
         <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>0.8976438559185164</v>
+        <v>0.8976438559185171</v>
       </c>
       <c r="M4">
-        <v>0.8501926713727829</v>
+        <v>0.8501926713727838</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8710794069243577</v>
+        <v>0.8710794069243574</v>
       </c>
       <c r="D5">
-        <v>1.029773185199953</v>
+        <v>1.029773185199952</v>
       </c>
       <c r="E5">
-        <v>0.8917769491017058</v>
+        <v>0.8917769491017056</v>
       </c>
       <c r="F5">
-        <v>0.8457007701761828</v>
+        <v>0.8457007701761825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050666288111991</v>
+        <v>1.05066628811199</v>
       </c>
       <c r="J5">
         <v>0.8939078014425523</v>
       </c>
       <c r="K5">
-        <v>1.039309142812778</v>
+        <v>1.039309142812777</v>
       </c>
       <c r="L5">
-        <v>0.9031214384141694</v>
+        <v>0.9031214384141689</v>
       </c>
       <c r="M5">
-        <v>0.8578197317340744</v>
+        <v>0.8578197317340739</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8721843280133094</v>
+        <v>0.8721843280133114</v>
       </c>
       <c r="D6">
-        <v>1.029924063371672</v>
+        <v>1.029924063371671</v>
       </c>
       <c r="E6">
-        <v>0.8927336764502973</v>
+        <v>0.8927336764502993</v>
       </c>
       <c r="F6">
-        <v>0.8470209609845063</v>
+        <v>0.8470209609845089</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050719259225519</v>
       </c>
       <c r="J6">
-        <v>0.8948778286566414</v>
+        <v>0.8948778286566438</v>
       </c>
       <c r="K6">
-        <v>1.039422122093322</v>
+        <v>1.039422122093321</v>
       </c>
       <c r="L6">
-        <v>0.904019079484119</v>
+        <v>0.9040190794841211</v>
       </c>
       <c r="M6">
-        <v>0.8590686818355268</v>
+        <v>0.8590686818355293</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8644294333583293</v>
+        <v>0.8644294333583301</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.028878962103937</v>
       </c>
       <c r="E7">
-        <v>0.8860209931352137</v>
+        <v>0.8860209931352144</v>
       </c>
       <c r="F7">
-        <v>0.8377489581980636</v>
+        <v>0.8377489581980646</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>0.8880684949672147</v>
+        <v>0.8880684949672155</v>
       </c>
       <c r="K7">
         <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>0.8977185900745419</v>
+        <v>0.8977185900745425</v>
       </c>
       <c r="M7">
-        <v>0.8502968015796981</v>
+        <v>0.8502968015796989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8269913258674692</v>
+        <v>0.8269913258674702</v>
       </c>
       <c r="D8">
-        <v>1.024316734034516</v>
+        <v>1.024316734034517</v>
       </c>
       <c r="E8">
-        <v>0.8536937541769666</v>
+        <v>0.8536937541769677</v>
       </c>
       <c r="F8">
-        <v>0.792737483756306</v>
+        <v>0.7927374837563071</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.048692855248919</v>
       </c>
       <c r="J8">
-        <v>0.8551652328561207</v>
+        <v>0.8551652328561217</v>
       </c>
       <c r="K8">
-        <v>1.035177093591588</v>
+        <v>1.035177093591589</v>
       </c>
       <c r="L8">
-        <v>0.8673030924933286</v>
+        <v>0.8673030924933296</v>
       </c>
       <c r="M8">
-        <v>0.8077164822973494</v>
+        <v>0.8077164822973507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D9">
         <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F9">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K9">
         <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M9">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D10">
         <v>1.015507248178864</v>
       </c>
       <c r="E10">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F10">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J10">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K10">
         <v>1.028353643349236</v>
       </c>
       <c r="L10">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M10">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D11">
         <v>1.015507248178864</v>
       </c>
       <c r="E11">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F11">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J11">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K11">
         <v>1.028353643349236</v>
       </c>
       <c r="L11">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M11">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D12">
         <v>1.015507248178864</v>
       </c>
       <c r="E12">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F12">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J12">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K12">
         <v>1.028353643349236</v>
       </c>
       <c r="L12">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M12">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D13">
         <v>1.015507248178864</v>
       </c>
       <c r="E13">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F13">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J13">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K13">
         <v>1.028353643349236</v>
       </c>
       <c r="L13">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M13">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D14">
         <v>1.015507248178864</v>
       </c>
       <c r="E14">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F14">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J14">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K14">
         <v>1.028353643349236</v>
       </c>
       <c r="L14">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M14">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D15">
         <v>1.015507248178864</v>
       </c>
       <c r="E15">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F15">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J15">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K15">
         <v>1.028353643349236</v>
       </c>
       <c r="L15">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M15">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D16">
         <v>1.015507248178864</v>
       </c>
       <c r="E16">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F16">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J16">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K16">
         <v>1.028353643349236</v>
       </c>
       <c r="L16">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M16">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D17">
         <v>1.015507248178864</v>
       </c>
       <c r="E17">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F17">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J17">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K17">
         <v>1.028353643349236</v>
       </c>
       <c r="L17">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M17">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D18">
         <v>1.015507248178864</v>
       </c>
       <c r="E18">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F18">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J18">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K18">
         <v>1.028353643349236</v>
       </c>
       <c r="L18">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M18">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D19">
         <v>1.015507248178864</v>
       </c>
       <c r="E19">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F19">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J19">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K19">
         <v>1.028353643349236</v>
       </c>
       <c r="L19">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M19">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D20">
         <v>1.015507248178864</v>
       </c>
       <c r="E20">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F20">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J20">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K20">
         <v>1.028353643349236</v>
       </c>
       <c r="L20">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M20">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D21">
         <v>1.015507248178864</v>
       </c>
       <c r="E21">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F21">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J21">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K21">
         <v>1.028353643349236</v>
       </c>
       <c r="L21">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M21">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D22">
         <v>1.015507248178864</v>
       </c>
       <c r="E22">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F22">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J22">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K22">
         <v>1.028353643349236</v>
       </c>
       <c r="L22">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M22">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D23">
         <v>1.015507248178864</v>
       </c>
       <c r="E23">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F23">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J23">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K23">
         <v>1.028353643349236</v>
       </c>
       <c r="L23">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M23">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D24">
         <v>1.015507248178864</v>
       </c>
       <c r="E24">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F24">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J24">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K24">
         <v>1.028353643349236</v>
       </c>
       <c r="L24">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M24">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6959317127886567</v>
+        <v>0.6959317127886582</v>
       </c>
       <c r="D25">
         <v>1.015507248178864</v>
       </c>
       <c r="E25">
-        <v>0.7420833836586916</v>
+        <v>0.7420833836586932</v>
       </c>
       <c r="F25">
-        <v>0.6284023105815971</v>
+        <v>0.6284023105815996</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J25">
-        <v>0.7398864097707775</v>
+        <v>0.7398864097707789</v>
       </c>
       <c r="K25">
         <v>1.028353643349236</v>
       </c>
       <c r="L25">
-        <v>0.76142856102359</v>
+        <v>0.7614285610235916</v>
       </c>
       <c r="M25">
-        <v>0.6529706770195027</v>
+        <v>0.6529706770195051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8155393728165563</v>
+        <v>0.8160514184526289</v>
       </c>
       <c r="D2">
         <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.8438356686776808</v>
+        <v>0.8442858815125226</v>
       </c>
       <c r="F2">
-        <v>0.7788657062966474</v>
+        <v>0.7794303575253079</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,19 @@
         <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.8450939074338512</v>
+        <v>0.8455786959569169</v>
       </c>
       <c r="K2">
         <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.8580051900135679</v>
+        <v>0.8584456763081664</v>
       </c>
       <c r="M2">
-        <v>0.7945995347080249</v>
+        <v>0.7951490618630876</v>
+      </c>
+      <c r="N2">
+        <v>0.8909672210951523</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8470365899864465</v>
+        <v>0.8474159862693559</v>
       </c>
       <c r="D3">
         <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.8709849967591665</v>
+        <v>0.8713204730545683</v>
       </c>
       <c r="F3">
-        <v>0.8168945030935919</v>
+        <v>0.8173041623951881</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +480,19 @@
         <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>0.8727876062524531</v>
+        <v>0.8731505769396581</v>
       </c>
       <c r="K3">
         <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>0.8835864431806886</v>
+        <v>0.8839158173904363</v>
       </c>
       <c r="M3">
-        <v>0.8305668358717866</v>
+        <v>0.8309676779123346</v>
+      </c>
+      <c r="N3">
+        <v>0.9108344804692508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8643374531022457</v>
+        <v>0.8646583121683047</v>
       </c>
       <c r="D4">
         <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>0.8859414047127346</v>
+        <v>0.8862258371534946</v>
       </c>
       <c r="F4">
-        <v>0.8376388935769328</v>
+        <v>0.8379819589020346</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +521,19 @@
         <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>0.8879877139015511</v>
+        <v>0.8882962998879933</v>
       </c>
       <c r="K4">
         <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>0.8976438559185171</v>
+        <v>0.8979236286349034</v>
       </c>
       <c r="M4">
-        <v>0.8501926713727838</v>
+        <v>0.8505292378310341</v>
+      </c>
+      <c r="N4">
+        <v>0.9217609854452629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8710794069243574</v>
+        <v>0.8713794873366867</v>
       </c>
       <c r="D5">
         <v>1.029773185199952</v>
       </c>
       <c r="E5">
-        <v>0.8917769491017056</v>
+        <v>0.8920431959037329</v>
       </c>
       <c r="F5">
-        <v>0.8457007701761825</v>
+        <v>0.8460204826970338</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +562,19 @@
         <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>0.8939078014425523</v>
+        <v>0.8941969709153874</v>
       </c>
       <c r="K5">
         <v>1.039309142812777</v>
       </c>
       <c r="L5">
-        <v>0.9031214384141689</v>
+        <v>0.9033835074701965</v>
       </c>
       <c r="M5">
-        <v>0.8578197317340739</v>
+        <v>0.8581336927003915</v>
+      </c>
+      <c r="N5">
+        <v>0.9260187721095118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +585,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8721843280133114</v>
+        <v>0.8724810989925349</v>
       </c>
       <c r="D6">
         <v>1.029924063371671</v>
       </c>
       <c r="E6">
-        <v>0.8927336764502993</v>
+        <v>0.8929970234959029</v>
       </c>
       <c r="F6">
-        <v>0.8470209609845089</v>
+        <v>0.8473369682333156</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +603,19 @@
         <v>1.050719259225519</v>
       </c>
       <c r="J6">
-        <v>0.8948778286566438</v>
+        <v>0.8951638998306926</v>
       </c>
       <c r="K6">
         <v>1.039422122093321</v>
       </c>
       <c r="L6">
-        <v>0.9040190794841211</v>
+        <v>0.9042783239428654</v>
       </c>
       <c r="M6">
-        <v>0.8590686818355293</v>
+        <v>0.8593790527626672</v>
+      </c>
+      <c r="N6">
+        <v>0.9267164910147315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +626,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8644294333583301</v>
+        <v>0.8647500019193866</v>
       </c>
       <c r="D7">
         <v>1.028878962103937</v>
       </c>
       <c r="E7">
-        <v>0.8860209931352144</v>
+        <v>0.8863051715698634</v>
       </c>
       <c r="F7">
-        <v>0.8377489581980646</v>
+        <v>0.8380916959794112</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +644,19 @@
         <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>0.8880684949672155</v>
+        <v>0.8883768099179219</v>
       </c>
       <c r="K7">
         <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>0.8977185900745425</v>
+        <v>0.8979981156397565</v>
       </c>
       <c r="M7">
-        <v>0.8502968015796989</v>
+        <v>0.8506330512226131</v>
+      </c>
+      <c r="N7">
+        <v>0.9218190782695195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8269913258674702</v>
+        <v>0.8274503852138505</v>
       </c>
       <c r="D8">
         <v>1.024316734034517</v>
       </c>
       <c r="E8">
-        <v>0.8536937541769677</v>
+        <v>0.8540982791669798</v>
       </c>
       <c r="F8">
-        <v>0.7927374837563071</v>
+        <v>0.7932395802089153</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +685,19 @@
         <v>1.048692855248919</v>
       </c>
       <c r="J8">
-        <v>0.8551652328561217</v>
+        <v>0.8556015684648256</v>
       </c>
       <c r="K8">
         <v>1.035177093591589</v>
       </c>
       <c r="L8">
-        <v>0.8673030924933296</v>
+        <v>0.8676993880065432</v>
       </c>
       <c r="M8">
-        <v>0.8077164822973507</v>
+        <v>0.8082061372491535</v>
+      </c>
+      <c r="N8">
+        <v>0.8981843178406346</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D9">
         <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F9">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +726,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K9">
         <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M9">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N9">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D10">
         <v>1.015507248178864</v>
       </c>
       <c r="E10">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F10">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +767,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J10">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K10">
         <v>1.028353643349236</v>
       </c>
       <c r="L10">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M10">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N10">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D11">
         <v>1.015507248178864</v>
       </c>
       <c r="E11">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F11">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +808,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J11">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K11">
         <v>1.028353643349236</v>
       </c>
       <c r="L11">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M11">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N11">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D12">
         <v>1.015507248178864</v>
       </c>
       <c r="E12">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F12">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +849,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J12">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K12">
         <v>1.028353643349236</v>
       </c>
       <c r="L12">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M12">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N12">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D13">
         <v>1.015507248178864</v>
       </c>
       <c r="E13">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F13">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +890,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J13">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K13">
         <v>1.028353643349236</v>
       </c>
       <c r="L13">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M13">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N13">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D14">
         <v>1.015507248178864</v>
       </c>
       <c r="E14">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F14">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +931,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J14">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K14">
         <v>1.028353643349236</v>
       </c>
       <c r="L14">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M14">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N14">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D15">
         <v>1.015507248178864</v>
       </c>
       <c r="E15">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F15">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +972,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J15">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K15">
         <v>1.028353643349236</v>
       </c>
       <c r="L15">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M15">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N15">
+        <v>0.8173213790915882</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D16">
         <v>1.015507248178864</v>
       </c>
       <c r="E16">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F16">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,19 +1013,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J16">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K16">
         <v>1.028353643349236</v>
       </c>
       <c r="L16">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M16">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N16">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D17">
         <v>1.015507248178864</v>
       </c>
       <c r="E17">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F17">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,19 +1054,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J17">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K17">
         <v>1.028353643349236</v>
       </c>
       <c r="L17">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M17">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N17">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D18">
         <v>1.015507248178864</v>
       </c>
       <c r="E18">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F18">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,19 +1095,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J18">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K18">
         <v>1.028353643349236</v>
       </c>
       <c r="L18">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M18">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N18">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D19">
         <v>1.015507248178864</v>
       </c>
       <c r="E19">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F19">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,19 +1136,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J19">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K19">
         <v>1.028353643349236</v>
       </c>
       <c r="L19">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M19">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N19">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D20">
         <v>1.015507248178864</v>
       </c>
       <c r="E20">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F20">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,19 +1177,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J20">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K20">
         <v>1.028353643349236</v>
       </c>
       <c r="L20">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M20">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N20">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D21">
         <v>1.015507248178864</v>
       </c>
       <c r="E21">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F21">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,19 +1218,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J21">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K21">
         <v>1.028353643349236</v>
       </c>
       <c r="L21">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M21">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N21">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D22">
         <v>1.015507248178864</v>
       </c>
       <c r="E22">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F22">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,19 +1259,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J22">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K22">
         <v>1.028353643349236</v>
       </c>
       <c r="L22">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M22">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N22">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D23">
         <v>1.015507248178864</v>
       </c>
       <c r="E23">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F23">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,19 +1300,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J23">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K23">
         <v>1.028353643349236</v>
       </c>
       <c r="L23">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M23">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N23">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D24">
         <v>1.015507248178864</v>
       </c>
       <c r="E24">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F24">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,19 +1341,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J24">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K24">
         <v>1.028353643349236</v>
       </c>
       <c r="L24">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M24">
-        <v>0.6529706770195051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N24">
+        <v>0.8173213790915882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6959317127886582</v>
+        <v>0.6986750038768148</v>
       </c>
       <c r="D25">
         <v>1.015507248178864</v>
       </c>
       <c r="E25">
-        <v>0.7420833836586932</v>
+        <v>0.7444057493681825</v>
       </c>
       <c r="F25">
-        <v>0.6284023105815996</v>
+        <v>0.6319183021165866</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1382,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J25">
-        <v>0.7398864097707789</v>
+        <v>0.7423511120006094</v>
       </c>
       <c r="K25">
         <v>1.028353643349236</v>
       </c>
       <c r="L25">
-        <v>0.7614285610235916</v>
+        <v>0.7636673353645332</v>
       </c>
       <c r="M25">
-        <v>0.6529706770195051</v>
+        <v>0.6562834902833226</v>
+      </c>
+      <c r="N25">
+        <v>0.8173213790915882</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8160514184526289</v>
+        <v>0.932817759446551</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.030558569076133</v>
       </c>
       <c r="E2">
-        <v>0.8442858815125226</v>
+        <v>0.9509814625308063</v>
       </c>
       <c r="F2">
-        <v>0.7794303575253079</v>
+        <v>0.9508117302231578</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.04338587463865</v>
       </c>
       <c r="J2">
-        <v>0.8455786959569169</v>
+        <v>0.9572119850469558</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.041607978061876</v>
       </c>
       <c r="L2">
-        <v>0.8584456763081664</v>
+        <v>0.9631687518072165</v>
       </c>
       <c r="M2">
-        <v>0.7951490618630876</v>
+        <v>0.9630017070735459</v>
       </c>
       <c r="N2">
-        <v>0.8909672210951523</v>
+        <v>0.9585713358594716</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8474159862693559</v>
+        <v>0.9561482826654928</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.036151820093197</v>
       </c>
       <c r="E3">
-        <v>0.8713204730545683</v>
+        <v>0.9718386837980482</v>
       </c>
       <c r="F3">
-        <v>0.8173041623951881</v>
+        <v>0.9731588970565819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04955216868654</v>
+        <v>1.047483728744453</v>
       </c>
       <c r="J3">
-        <v>0.8731505769396581</v>
+        <v>0.9779102229550746</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.046342119286046</v>
       </c>
       <c r="L3">
-        <v>0.8839158173904363</v>
+        <v>0.9828450424993512</v>
       </c>
       <c r="M3">
-        <v>0.8309676779123346</v>
+        <v>0.9841471388846308</v>
       </c>
       <c r="N3">
-        <v>0.9108344804692508</v>
+        <v>0.9792989676395413</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8646583121683047</v>
+        <v>0.9698862246503779</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.039511805480621</v>
       </c>
       <c r="E4">
-        <v>0.8862258371534946</v>
+        <v>0.9841361240040926</v>
       </c>
       <c r="F4">
-        <v>0.8379819589020346</v>
+        <v>0.9863395726892571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611163</v>
+        <v>1.049894452028781</v>
       </c>
       <c r="J4">
-        <v>0.8882962998879933</v>
+        <v>0.9900929238630282</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.049155645265415</v>
       </c>
       <c r="L4">
-        <v>0.8979236286349034</v>
+        <v>0.9944298594633003</v>
       </c>
       <c r="M4">
-        <v>0.8505292378310341</v>
+        <v>0.9966057118728342</v>
       </c>
       <c r="N4">
-        <v>0.9217609854452629</v>
+        <v>0.9914989693801595</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8713794873366867</v>
+        <v>0.9753919064270691</v>
       </c>
       <c r="D5">
-        <v>1.029773185199952</v>
+        <v>1.040871305789857</v>
       </c>
       <c r="E5">
-        <v>0.8920431959037329</v>
+        <v>0.9890675592779132</v>
       </c>
       <c r="F5">
-        <v>0.8460204826970338</v>
+        <v>0.9916264516512276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05066628811199</v>
+        <v>1.050858720625707</v>
       </c>
       <c r="J5">
-        <v>0.8941969709153874</v>
+        <v>0.9949735562662296</v>
       </c>
       <c r="K5">
-        <v>1.039309142812777</v>
+        <v>1.050287380983895</v>
       </c>
       <c r="L5">
-        <v>0.9033835074701965</v>
+        <v>0.9990717815849162</v>
       </c>
       <c r="M5">
-        <v>0.8581336927003915</v>
+        <v>1.001599832800172</v>
       </c>
       <c r="N5">
-        <v>0.9260187721095118</v>
+        <v>0.9963865328411895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8724810989925349</v>
+        <v>0.9763018237257691</v>
       </c>
       <c r="D6">
-        <v>1.029924063371671</v>
+        <v>1.041096676233865</v>
       </c>
       <c r="E6">
-        <v>0.8929970234959029</v>
+        <v>0.9898827336597509</v>
       </c>
       <c r="F6">
-        <v>0.8473369682333156</v>
+        <v>0.9925004580368226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225519</v>
+        <v>1.051017941239262</v>
       </c>
       <c r="J6">
-        <v>0.8951638998306926</v>
+        <v>0.9957800564664575</v>
       </c>
       <c r="K6">
-        <v>1.039422122093321</v>
+        <v>1.050474616821179</v>
       </c>
       <c r="L6">
-        <v>0.9042783239428654</v>
+        <v>0.9998388828418431</v>
       </c>
       <c r="M6">
-        <v>0.8593790527626672</v>
+        <v>1.002425259783347</v>
       </c>
       <c r="N6">
-        <v>0.9267164910147315</v>
+        <v>0.9971941783642089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8647500019193866</v>
+        <v>0.9699607907925654</v>
       </c>
       <c r="D7">
-        <v>1.028878962103937</v>
+        <v>1.039530169596556</v>
       </c>
       <c r="E7">
-        <v>0.8863051715698634</v>
+        <v>0.9842029014639438</v>
       </c>
       <c r="F7">
-        <v>0.8380916959794112</v>
+        <v>0.9864111581321634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012133</v>
+        <v>1.049907520596213</v>
       </c>
       <c r="J7">
-        <v>0.8883768099179219</v>
+        <v>0.9901590322800596</v>
       </c>
       <c r="K7">
-        <v>1.03863801414487</v>
+        <v>1.049170958588167</v>
       </c>
       <c r="L7">
-        <v>0.8979981156397565</v>
+        <v>0.9944927313379904</v>
       </c>
       <c r="M7">
-        <v>0.8506330512226131</v>
+        <v>0.9966733456911124</v>
       </c>
       <c r="N7">
-        <v>0.9218190782695195</v>
+        <v>0.9915651716787255</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8274503852138505</v>
+        <v>0.9410232931781105</v>
       </c>
       <c r="D8">
-        <v>1.024316734034517</v>
+        <v>1.032508904644011</v>
       </c>
       <c r="E8">
-        <v>0.8540982791669798</v>
+        <v>0.9583130449189341</v>
       </c>
       <c r="F8">
-        <v>0.7932395802089153</v>
+        <v>0.9586660855434684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048692855248919</v>
+        <v>1.044826647923031</v>
       </c>
       <c r="J8">
-        <v>0.8556015684648256</v>
+        <v>0.9644924937957629</v>
       </c>
       <c r="K8">
-        <v>1.035177093591589</v>
+        <v>1.043265816555382</v>
       </c>
       <c r="L8">
-        <v>0.8676993880065432</v>
+        <v>0.9700889542947826</v>
       </c>
       <c r="M8">
-        <v>0.8082061372491535</v>
+        <v>0.9704366709978599</v>
       </c>
       <c r="N8">
-        <v>0.8981843178406346</v>
+        <v>0.9658621837657885</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.6986750038768148</v>
+        <v>0.8755174467955797</v>
       </c>
       <c r="D9">
-        <v>1.015507248178864</v>
+        <v>1.017496064899947</v>
       </c>
       <c r="E9">
-        <v>0.7444057493681825</v>
+        <v>0.8999257154507496</v>
       </c>
       <c r="F9">
-        <v>0.6319183021165866</v>
+        <v>0.8961299136856157</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.033410948987972</v>
       </c>
       <c r="J9">
-        <v>0.7423511120006094</v>
+        <v>0.9063866326092287</v>
       </c>
       <c r="K9">
-        <v>1.028353643349236</v>
+        <v>1.030311518032444</v>
       </c>
       <c r="L9">
-        <v>0.7636673353645332</v>
+        <v>0.9148818891904126</v>
       </c>
       <c r="M9">
-        <v>0.6562834902833226</v>
+        <v>0.9111676300880249</v>
       </c>
       <c r="N9">
-        <v>0.8173213790915882</v>
+        <v>0.9076738055915335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.6986750038768148</v>
+        <v>0.8088620648660345</v>
       </c>
       <c r="D10">
-        <v>1.015507248178864</v>
+        <v>1.003661089322704</v>
       </c>
       <c r="E10">
-        <v>0.7444057493681825</v>
+        <v>0.8409245134307989</v>
       </c>
       <c r="F10">
-        <v>0.6319183021165866</v>
+        <v>0.8329242528961414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045316807020323</v>
+        <v>1.022198365253902</v>
       </c>
       <c r="J10">
-        <v>0.7423511120006094</v>
+        <v>0.8474253149719608</v>
       </c>
       <c r="K10">
-        <v>1.028353643349236</v>
+        <v>1.017964554807068</v>
       </c>
       <c r="L10">
-        <v>0.7636673353645332</v>
+        <v>0.8589138062727447</v>
       </c>
       <c r="M10">
-        <v>0.6562834902833226</v>
+        <v>0.8511459309140015</v>
       </c>
       <c r="N10">
-        <v>0.8173213790915882</v>
+        <v>0.8486287561202634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6986750038768148</v>
+        <v>0.7612268398350437</v>
       </c>
       <c r="D11">
-        <v>1.015507248178864</v>
+        <v>0.9947566739418449</v>
       </c>
       <c r="E11">
-        <v>0.7444057493681825</v>
+        <v>0.7990999744035732</v>
       </c>
       <c r="F11">
-        <v>0.6319183021165866</v>
+        <v>0.7880744419769324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045316807020323</v>
+        <v>1.014573817404585</v>
       </c>
       <c r="J11">
-        <v>0.7423511120006094</v>
+        <v>0.805503491139785</v>
       </c>
       <c r="K11">
-        <v>1.028353643349236</v>
+        <v>1.009778153790812</v>
       </c>
       <c r="L11">
-        <v>0.7636673353645332</v>
+        <v>0.8191549050273865</v>
       </c>
       <c r="M11">
-        <v>0.6562834902833226</v>
+        <v>0.8085180498602709</v>
       </c>
       <c r="N11">
-        <v>0.8173213790915882</v>
+        <v>0.8066473984897455</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6986750038768148</v>
+        <v>0.7321208686502823</v>
       </c>
       <c r="D12">
-        <v>1.015507248178864</v>
+        <v>0.9897400722544692</v>
       </c>
       <c r="E12">
-        <v>0.7444057493681825</v>
+        <v>0.773721624671236</v>
       </c>
       <c r="F12">
-        <v>0.6319183021165866</v>
+        <v>0.7608302496155326</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045316807020323</v>
+        <v>1.010108370234891</v>
       </c>
       <c r="J12">
-        <v>0.7423511120006094</v>
+        <v>0.7800165795470401</v>
       </c>
       <c r="K12">
-        <v>1.028353643349236</v>
+        <v>1.005066511888614</v>
       </c>
       <c r="L12">
-        <v>0.7636673353645332</v>
+        <v>0.7950002348322284</v>
       </c>
       <c r="M12">
-        <v>0.6562834902833226</v>
+        <v>0.7826171246119383</v>
       </c>
       <c r="N12">
-        <v>0.8173213790915882</v>
+        <v>0.7811242925591491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6986750038768148</v>
+        <v>0.739662717685187</v>
       </c>
       <c r="D13">
-        <v>1.015507248178864</v>
+        <v>0.9910085170315267</v>
       </c>
       <c r="E13">
-        <v>0.7444057493681825</v>
+        <v>0.7802830902286049</v>
       </c>
       <c r="F13">
-        <v>0.6319183021165866</v>
+        <v>0.7678767399921759</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045316807020323</v>
+        <v>1.011250374209455</v>
       </c>
       <c r="J13">
-        <v>0.7423511120006094</v>
+        <v>0.7866098042741579</v>
       </c>
       <c r="K13">
-        <v>1.028353643349236</v>
+        <v>1.006265410532283</v>
       </c>
       <c r="L13">
-        <v>0.7636673353645332</v>
+        <v>0.8012473978534853</v>
       </c>
       <c r="M13">
-        <v>0.6562834902833226</v>
+        <v>0.7893163993442323</v>
       </c>
       <c r="N13">
-        <v>0.8173213790915882</v>
+        <v>0.787726880421633</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6986750038768148</v>
+        <v>0.7592544241919922</v>
       </c>
       <c r="D14">
-        <v>1.015507248178864</v>
+        <v>0.9944064150805917</v>
       </c>
       <c r="E14">
-        <v>0.7444057493681825</v>
+        <v>0.7973755573428281</v>
       </c>
       <c r="F14">
-        <v>0.6319183021165866</v>
+        <v>0.786224067878268</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045316807020323</v>
+        <v>1.014266336998151</v>
       </c>
       <c r="J14">
-        <v>0.7423511120006094</v>
+        <v>0.8037729014463851</v>
       </c>
       <c r="K14">
-        <v>1.028353643349236</v>
+        <v>1.00945170330802</v>
       </c>
       <c r="L14">
-        <v>0.7636673353645332</v>
+        <v>0.8175143246842231</v>
       </c>
       <c r="M14">
-        <v>0.6562834902833226</v>
+        <v>0.8067589996445056</v>
       </c>
       <c r="N14">
-        <v>0.8173213790915882</v>
+        <v>0.8049143511604795</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6986750038768148</v>
+        <v>0.7690631460397821</v>
       </c>
       <c r="D15">
-        <v>1.015507248178864</v>
+        <v>0.9961628934725801</v>
       </c>
       <c r="E15">
-        <v>0.7444057493681825</v>
+        <v>0.8059572029387708</v>
       </c>
       <c r="F15">
-        <v>0.6319183021165866</v>
+        <v>0.7954314672987248</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045316807020323</v>
+        <v>1.015802173795793</v>
       </c>
       <c r="J15">
-        <v>0.7423511120006094</v>
+        <v>0.8123835609683816</v>
       </c>
       <c r="K15">
-        <v>1.028353643349236</v>
+        <v>1.011085204310684</v>
       </c>
       <c r="L15">
-        <v>0.7636673353645332</v>
+        <v>0.8256777413968326</v>
       </c>
       <c r="M15">
-        <v>0.6562834902833226</v>
+        <v>0.8155117785568152</v>
       </c>
       <c r="N15">
-        <v>0.8173213790915882</v>
+        <v>0.8135372388066533</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6986750038768148</v>
+        <v>0.8113485721474182</v>
       </c>
       <c r="D16">
-        <v>1.015507248178864</v>
+        <v>1.004148987210847</v>
       </c>
       <c r="E16">
-        <v>0.7444057493681825</v>
+        <v>0.8431163388724392</v>
       </c>
       <c r="F16">
-        <v>0.6319183021165866</v>
+        <v>0.8352732915277259</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045316807020323</v>
+        <v>1.022606187033092</v>
       </c>
       <c r="J16">
-        <v>0.7423511120006094</v>
+        <v>0.8496194576395572</v>
       </c>
       <c r="K16">
-        <v>1.028353643349236</v>
+        <v>1.018407273528814</v>
       </c>
       <c r="L16">
-        <v>0.7636673353645332</v>
+        <v>0.8609955952444223</v>
       </c>
       <c r="M16">
-        <v>0.6562834902833226</v>
+        <v>0.8533779798277401</v>
       </c>
       <c r="N16">
-        <v>0.8173213790915882</v>
+        <v>0.8508260147221192</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6986750038768148</v>
+        <v>0.8313355622105706</v>
       </c>
       <c r="D17">
-        <v>1.015507248178864</v>
+        <v>1.008151858989041</v>
       </c>
       <c r="E17">
-        <v>0.7444057493681825</v>
+        <v>0.8607622568411885</v>
       </c>
       <c r="F17">
-        <v>0.6319183021165866</v>
+        <v>0.8541812753091182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045316807020323</v>
+        <v>1.025916296605106</v>
       </c>
       <c r="J17">
-        <v>0.7423511120006094</v>
+        <v>0.8672737070237296</v>
       </c>
       <c r="K17">
-        <v>1.028353643349236</v>
+        <v>1.02201845050755</v>
       </c>
       <c r="L17">
-        <v>0.7636673353645332</v>
+        <v>0.8777486503358553</v>
       </c>
       <c r="M17">
-        <v>0.6562834902833226</v>
+        <v>0.8713411581880138</v>
       </c>
       <c r="N17">
-        <v>0.8173213790915882</v>
+        <v>0.8685053351653879</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6986750038768148</v>
+        <v>0.8416818801094137</v>
       </c>
       <c r="D18">
-        <v>1.015507248178864</v>
+        <v>1.010279774294621</v>
       </c>
       <c r="E18">
-        <v>0.7444057493681825</v>
+        <v>0.8699150056380444</v>
       </c>
       <c r="F18">
-        <v>0.6319183021165866</v>
+        <v>0.863986492916846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045316807020323</v>
+        <v>1.027650860716964</v>
       </c>
       <c r="J18">
-        <v>0.7423511120006094</v>
+        <v>0.8764233906428801</v>
       </c>
       <c r="K18">
-        <v>1.028353643349236</v>
+        <v>1.023923393670767</v>
       </c>
       <c r="L18">
-        <v>0.7636673353645332</v>
+        <v>0.8864331792628257</v>
       </c>
       <c r="M18">
-        <v>0.6562834902833226</v>
+        <v>0.8806539102215957</v>
       </c>
       <c r="N18">
-        <v>0.8173213790915882</v>
+        <v>0.8776680123847608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6986750038768148</v>
+        <v>0.8450348524569505</v>
       </c>
       <c r="D19">
-        <v>1.015507248178864</v>
+        <v>1.010977415262291</v>
       </c>
       <c r="E19">
-        <v>0.7444057493681825</v>
+        <v>0.8728837054741474</v>
       </c>
       <c r="F19">
-        <v>0.6319183021165866</v>
+        <v>0.8671665642670641</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045316807020323</v>
+        <v>1.02821587429948</v>
       </c>
       <c r="J19">
-        <v>0.7423511120006094</v>
+        <v>0.8793899845423668</v>
       </c>
       <c r="K19">
-        <v>1.028353643349236</v>
+        <v>1.024545774947374</v>
       </c>
       <c r="L19">
-        <v>0.7636673353645332</v>
+        <v>0.8892492287680711</v>
       </c>
       <c r="M19">
-        <v>0.6562834902833226</v>
+        <v>0.8836738438696028</v>
       </c>
       <c r="N19">
-        <v>0.8173213790915882</v>
+        <v>0.880638819187858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6986750038768148</v>
+        <v>0.8293398035002044</v>
       </c>
       <c r="D20">
-        <v>1.015507248178864</v>
+        <v>1.00774573808482</v>
       </c>
       <c r="E20">
-        <v>0.7444057493681825</v>
+        <v>0.8589981255968948</v>
       </c>
       <c r="F20">
-        <v>0.6319183021165866</v>
+        <v>0.8522912328299067</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045316807020323</v>
+        <v>1.025583305577815</v>
       </c>
       <c r="J20">
-        <v>0.7423511120006094</v>
+        <v>0.8655095792153694</v>
       </c>
       <c r="K20">
-        <v>1.028353643349236</v>
+        <v>1.021653741805686</v>
       </c>
       <c r="L20">
-        <v>0.7636673353645332</v>
+        <v>0.8760743553308828</v>
       </c>
       <c r="M20">
-        <v>0.6562834902833226</v>
+        <v>0.869545831347611</v>
       </c>
       <c r="N20">
-        <v>0.8173213790915882</v>
+        <v>0.8667387020931915</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6986750038768148</v>
+        <v>0.7540650551510882</v>
       </c>
       <c r="D21">
-        <v>1.015507248178864</v>
+        <v>0.9934920096577194</v>
       </c>
       <c r="E21">
-        <v>0.7444057493681825</v>
+        <v>0.7928417454830339</v>
       </c>
       <c r="F21">
-        <v>0.6319183021165866</v>
+        <v>0.7813585504986913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045316807020323</v>
+        <v>1.013460679096784</v>
       </c>
       <c r="J21">
-        <v>0.7423511120006094</v>
+        <v>0.7992220337320521</v>
       </c>
       <c r="K21">
-        <v>1.028353643349236</v>
+        <v>1.008597735846811</v>
       </c>
       <c r="L21">
-        <v>0.7636673353645332</v>
+        <v>0.8132004513046851</v>
       </c>
       <c r="M21">
-        <v>0.6562834902833226</v>
+        <v>0.8021335347142121</v>
       </c>
       <c r="N21">
-        <v>0.8173213790915882</v>
+        <v>0.8003570206920001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6986750038768148</v>
+        <v>0.7540650551510882</v>
       </c>
       <c r="D22">
-        <v>1.015507248178864</v>
+        <v>0.9934920096577194</v>
       </c>
       <c r="E22">
-        <v>0.7444057493681825</v>
+        <v>0.7928417454830339</v>
       </c>
       <c r="F22">
-        <v>0.6319183021165866</v>
+        <v>0.7813585504986913</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045316807020323</v>
+        <v>1.013460679096784</v>
       </c>
       <c r="J22">
-        <v>0.7423511120006094</v>
+        <v>0.7992220337320521</v>
       </c>
       <c r="K22">
-        <v>1.028353643349236</v>
+        <v>1.008597735846811</v>
       </c>
       <c r="L22">
-        <v>0.7636673353645332</v>
+        <v>0.8132004513046851</v>
       </c>
       <c r="M22">
-        <v>0.6562834902833226</v>
+        <v>0.8021335347142121</v>
       </c>
       <c r="N22">
-        <v>0.8173213790915882</v>
+        <v>0.8003570206920001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6986750038768148</v>
+        <v>0.7540650551510882</v>
       </c>
       <c r="D23">
-        <v>1.015507248178864</v>
+        <v>0.9934920096577194</v>
       </c>
       <c r="E23">
-        <v>0.7444057493681825</v>
+        <v>0.7928417454830339</v>
       </c>
       <c r="F23">
-        <v>0.6319183021165866</v>
+        <v>0.7813585504986913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045316807020323</v>
+        <v>1.013460679096784</v>
       </c>
       <c r="J23">
-        <v>0.7423511120006094</v>
+        <v>0.7992220337320521</v>
       </c>
       <c r="K23">
-        <v>1.028353643349236</v>
+        <v>1.008597735846811</v>
       </c>
       <c r="L23">
-        <v>0.7636673353645332</v>
+        <v>0.8132004513046851</v>
       </c>
       <c r="M23">
-        <v>0.6562834902833226</v>
+        <v>0.8021335347142121</v>
       </c>
       <c r="N23">
-        <v>0.8173213790915882</v>
+        <v>0.8003570206920001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6986750038768148</v>
+        <v>0.7540650551510882</v>
       </c>
       <c r="D24">
-        <v>1.015507248178864</v>
+        <v>0.9934920096577194</v>
       </c>
       <c r="E24">
-        <v>0.7444057493681825</v>
+        <v>0.7928417454830339</v>
       </c>
       <c r="F24">
-        <v>0.6319183021165866</v>
+        <v>0.7813585504986913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045316807020323</v>
+        <v>1.013460679096784</v>
       </c>
       <c r="J24">
-        <v>0.7423511120006094</v>
+        <v>0.7992220337320521</v>
       </c>
       <c r="K24">
-        <v>1.028353643349236</v>
+        <v>1.008597735846811</v>
       </c>
       <c r="L24">
-        <v>0.7636673353645332</v>
+        <v>0.8132004513046851</v>
       </c>
       <c r="M24">
-        <v>0.6562834902833226</v>
+        <v>0.8021335347142121</v>
       </c>
       <c r="N24">
-        <v>0.8173213790915882</v>
+        <v>0.8003570206920001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6986750038768148</v>
+        <v>0.7540650551510882</v>
       </c>
       <c r="D25">
-        <v>1.015507248178864</v>
+        <v>0.9934920096577194</v>
       </c>
       <c r="E25">
-        <v>0.7444057493681825</v>
+        <v>0.7928417454830339</v>
       </c>
       <c r="F25">
-        <v>0.6319183021165866</v>
+        <v>0.7813585504986913</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045316807020323</v>
+        <v>1.013460679096784</v>
       </c>
       <c r="J25">
-        <v>0.7423511120006094</v>
+        <v>0.7992220337320521</v>
       </c>
       <c r="K25">
-        <v>1.028353643349236</v>
+        <v>1.008597735846811</v>
       </c>
       <c r="L25">
-        <v>0.7636673353645332</v>
+        <v>0.8132004513046851</v>
       </c>
       <c r="M25">
-        <v>0.6562834902833226</v>
+        <v>0.8021335347142121</v>
       </c>
       <c r="N25">
-        <v>0.8173213790915882</v>
+        <v>0.8003570206920001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.932817759446551</v>
+        <v>1.029565587594277</v>
       </c>
       <c r="D2">
-        <v>1.030558569076133</v>
+        <v>1.042054842912576</v>
       </c>
       <c r="E2">
-        <v>0.9509814625308063</v>
+        <v>1.039503905855295</v>
       </c>
       <c r="F2">
-        <v>0.9508117302231578</v>
+        <v>1.046992505874206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04338587463865</v>
+        <v>1.060643713471733</v>
       </c>
       <c r="J2">
-        <v>0.9572119850469558</v>
+        <v>1.050896577369335</v>
       </c>
       <c r="K2">
-        <v>1.041607978061876</v>
+        <v>1.05295780253729</v>
       </c>
       <c r="L2">
-        <v>0.9631687518072165</v>
+        <v>1.050439012471153</v>
       </c>
       <c r="M2">
-        <v>0.9630017070735459</v>
+        <v>1.057833795312161</v>
       </c>
       <c r="N2">
-        <v>0.9585713358594716</v>
+        <v>1.052388971048722</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9561482826654928</v>
+        <v>1.037375869000831</v>
       </c>
       <c r="D3">
-        <v>1.036151820093197</v>
+        <v>1.045838633534671</v>
       </c>
       <c r="E3">
-        <v>0.9718386837980482</v>
+        <v>1.046306011339913</v>
       </c>
       <c r="F3">
-        <v>0.9731588970565819</v>
+        <v>1.054183532225209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047483728744453</v>
+        <v>1.063409443048181</v>
       </c>
       <c r="J3">
-        <v>0.9779102229550746</v>
+        <v>1.056897011252142</v>
       </c>
       <c r="K3">
-        <v>1.046342119286046</v>
+        <v>1.055916763125835</v>
       </c>
       <c r="L3">
-        <v>0.9828450424993512</v>
+        <v>1.056378793695619</v>
       </c>
       <c r="M3">
-        <v>0.9841471388846308</v>
+        <v>1.064167067171484</v>
       </c>
       <c r="N3">
-        <v>0.9792989676395413</v>
+        <v>1.058397926235902</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9698862246503779</v>
+        <v>1.042276436220139</v>
       </c>
       <c r="D4">
-        <v>1.039511805480621</v>
+        <v>1.048219895327982</v>
       </c>
       <c r="E4">
-        <v>0.9841361240040926</v>
+        <v>1.05057891240207</v>
       </c>
       <c r="F4">
-        <v>0.9863395726892571</v>
+        <v>1.058702502800027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049894452028781</v>
+        <v>1.065133277326466</v>
       </c>
       <c r="J4">
-        <v>0.9900929238630282</v>
+        <v>1.060657224681728</v>
       </c>
       <c r="K4">
-        <v>1.049155645265415</v>
+        <v>1.05776920053292</v>
       </c>
       <c r="L4">
-        <v>0.9944298594633003</v>
+        <v>1.060102938692066</v>
       </c>
       <c r="M4">
-        <v>0.9966057118728342</v>
+        <v>1.068140531439375</v>
       </c>
       <c r="N4">
-        <v>0.9914989693801595</v>
+        <v>1.062163479599861</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9753919064270691</v>
+        <v>1.044302051783835</v>
       </c>
       <c r="D5">
-        <v>1.040871305789857</v>
+        <v>1.049205686641681</v>
       </c>
       <c r="E5">
-        <v>0.9890675592779132</v>
+        <v>1.052346176370811</v>
       </c>
       <c r="F5">
-        <v>0.9916264516512276</v>
+        <v>1.060571967184276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050858720625707</v>
+        <v>1.065842967395978</v>
       </c>
       <c r="J5">
-        <v>0.9949735562662296</v>
+        <v>1.062210276668506</v>
       </c>
       <c r="K5">
-        <v>1.050287380983895</v>
+        <v>1.058533771431039</v>
       </c>
       <c r="L5">
-        <v>0.9990717815849162</v>
+        <v>1.061641546801065</v>
       </c>
       <c r="M5">
-        <v>1.001599832800172</v>
+        <v>1.069782768879453</v>
       </c>
       <c r="N5">
-        <v>0.9963865328411895</v>
+        <v>1.063718737098597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9763018237257691</v>
+        <v>1.044640191184631</v>
       </c>
       <c r="D6">
-        <v>1.041096676233865</v>
+        <v>1.04937032999165</v>
       </c>
       <c r="E6">
-        <v>0.9898827336597509</v>
+        <v>1.052641250334893</v>
       </c>
       <c r="F6">
-        <v>0.9925004580368226</v>
+        <v>1.060884130404894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051017941239262</v>
+        <v>1.065961267589185</v>
       </c>
       <c r="J6">
-        <v>0.9957800564664575</v>
+        <v>1.062469457531553</v>
       </c>
       <c r="K6">
-        <v>1.050474616821179</v>
+        <v>1.058661333167983</v>
       </c>
       <c r="L6">
-        <v>0.9998388828418431</v>
+        <v>1.061898343522338</v>
       </c>
       <c r="M6">
-        <v>1.002425259783347</v>
+        <v>1.070056898255911</v>
       </c>
       <c r="N6">
-        <v>0.9971941783642089</v>
+        <v>1.063978286028197</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9699607907925654</v>
+        <v>1.042303635844468</v>
       </c>
       <c r="D7">
-        <v>1.039530169596556</v>
+        <v>1.048233126626377</v>
       </c>
       <c r="E7">
-        <v>0.9842029014639438</v>
+        <v>1.050602638723646</v>
       </c>
       <c r="F7">
-        <v>0.9864111581321634</v>
+        <v>1.05872759951508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049907520596213</v>
+        <v>1.06514281828877</v>
       </c>
       <c r="J7">
-        <v>0.9901590322800596</v>
+        <v>1.060678083657481</v>
       </c>
       <c r="K7">
-        <v>1.049170958588167</v>
+        <v>1.057779471656735</v>
       </c>
       <c r="L7">
-        <v>0.9944927313379904</v>
+        <v>1.06012360189351</v>
       </c>
       <c r="M7">
-        <v>0.9966733456911124</v>
+        <v>1.068162583890268</v>
       </c>
       <c r="N7">
-        <v>0.9915651716787255</v>
+        <v>1.062184368197752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9410232931781105</v>
+        <v>1.032238151679359</v>
       </c>
       <c r="D8">
-        <v>1.032508904644011</v>
+        <v>1.043347973293415</v>
       </c>
       <c r="E8">
-        <v>0.9583130449189341</v>
+        <v>1.041830391846407</v>
       </c>
       <c r="F8">
-        <v>0.9586660855434684</v>
+        <v>1.049451643665596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044826647923031</v>
+        <v>1.061592488753837</v>
       </c>
       <c r="J8">
-        <v>0.9644924937957629</v>
+        <v>1.052950803594126</v>
       </c>
       <c r="K8">
-        <v>1.043265816555382</v>
+        <v>1.053971117453419</v>
       </c>
       <c r="L8">
-        <v>0.9700889542947826</v>
+        <v>1.05247205650762</v>
       </c>
       <c r="M8">
-        <v>0.9704366709978599</v>
+        <v>1.06000097019419</v>
       </c>
       <c r="N8">
-        <v>0.9658621837657885</v>
+        <v>1.054446114510375</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8755174467955797</v>
+        <v>1.013223283390251</v>
       </c>
       <c r="D9">
-        <v>1.017496064899947</v>
+        <v>1.034187315635344</v>
       </c>
       <c r="E9">
-        <v>0.8999257154507496</v>
+        <v>1.025303272240593</v>
       </c>
       <c r="F9">
-        <v>0.8961299136856157</v>
+        <v>1.031989598450039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033410948987972</v>
+        <v>1.054795774374136</v>
       </c>
       <c r="J9">
-        <v>0.9063866326092287</v>
+        <v>1.0383175817851</v>
       </c>
       <c r="K9">
-        <v>1.030311518032444</v>
+        <v>1.046749051783772</v>
       </c>
       <c r="L9">
-        <v>0.9148818891904126</v>
+        <v>1.037998740298903</v>
       </c>
       <c r="M9">
-        <v>0.9111676300880249</v>
+        <v>1.044584144201573</v>
       </c>
       <c r="N9">
-        <v>0.9076738055915335</v>
+        <v>1.039792111847926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8088620648660345</v>
+        <v>0.999521148665253</v>
       </c>
       <c r="D10">
-        <v>1.003661089322704</v>
+        <v>1.027648306417658</v>
       </c>
       <c r="E10">
-        <v>0.8409245134307989</v>
+        <v>1.013431840016553</v>
       </c>
       <c r="F10">
-        <v>0.8329242528961414</v>
+        <v>1.019455901018151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022198365253902</v>
+        <v>1.049843024132002</v>
       </c>
       <c r="J10">
-        <v>0.8474253149719608</v>
+        <v>1.027753778160553</v>
       </c>
       <c r="K10">
-        <v>1.017964554807068</v>
+        <v>1.041535683141713</v>
       </c>
       <c r="L10">
-        <v>0.8589138062727447</v>
+        <v>1.027562740688866</v>
       </c>
       <c r="M10">
-        <v>0.8511459309140015</v>
+        <v>1.033482539360808</v>
       </c>
       <c r="N10">
-        <v>0.8486287561202634</v>
+        <v>1.029213306410547</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7612268398350437</v>
+        <v>0.9933006861100628</v>
       </c>
       <c r="D11">
-        <v>0.9947566739418449</v>
+        <v>1.024698530998425</v>
       </c>
       <c r="E11">
-        <v>0.7990999744035732</v>
+        <v>1.008053483792142</v>
       </c>
       <c r="F11">
-        <v>0.7880744419769324</v>
+        <v>1.013779637065779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014573817404585</v>
+        <v>1.047583090274144</v>
       </c>
       <c r="J11">
-        <v>0.805503491139785</v>
+        <v>1.022954844756781</v>
       </c>
       <c r="K11">
-        <v>1.009778153790812</v>
+        <v>1.039169230817162</v>
       </c>
       <c r="L11">
-        <v>0.8191549050273865</v>
+        <v>1.022825104714807</v>
       </c>
       <c r="M11">
-        <v>0.8085180498602709</v>
+        <v>1.028446285621948</v>
       </c>
       <c r="N11">
-        <v>0.8066473984897455</v>
+        <v>1.024407557970896</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7321208686502823</v>
+        <v>0.9909425681030096</v>
       </c>
       <c r="D12">
-        <v>0.9897400722544692</v>
+        <v>1.023583504967832</v>
       </c>
       <c r="E12">
-        <v>0.773721624671236</v>
+        <v>1.006016446611836</v>
       </c>
       <c r="F12">
-        <v>0.7608302496155326</v>
+        <v>1.011630081221115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010108370234891</v>
+        <v>1.046724795727538</v>
       </c>
       <c r="J12">
-        <v>0.7800165795470401</v>
+        <v>1.021135263615541</v>
       </c>
       <c r="K12">
-        <v>1.005066511888614</v>
+        <v>1.038272412800586</v>
       </c>
       <c r="L12">
-        <v>0.7950002348322284</v>
+        <v>1.021029281657075</v>
       </c>
       <c r="M12">
-        <v>0.7826171246119383</v>
+        <v>1.026537808380935</v>
       </c>
       <c r="N12">
-        <v>0.7811242925591491</v>
+        <v>1.022585392815727</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.739662717685187</v>
+        <v>0.991450621994896</v>
       </c>
       <c r="D13">
-        <v>0.9910085170315267</v>
+        <v>1.023823584876201</v>
       </c>
       <c r="E13">
-        <v>0.7802830902286049</v>
+        <v>1.006455237350303</v>
       </c>
       <c r="F13">
-        <v>0.7678767399921759</v>
+        <v>1.012093095191362</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011250374209455</v>
+        <v>1.046909782784245</v>
       </c>
       <c r="J13">
-        <v>0.7866098042741579</v>
+        <v>1.021527303936268</v>
       </c>
       <c r="K13">
-        <v>1.006265410532283</v>
+        <v>1.038465614483276</v>
       </c>
       <c r="L13">
-        <v>0.8012473978534853</v>
+        <v>1.021416179330644</v>
       </c>
       <c r="M13">
-        <v>0.7893163993442323</v>
+        <v>1.02694895223778</v>
       </c>
       <c r="N13">
-        <v>0.787726880421633</v>
+        <v>1.022977989878677</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7592544241919922</v>
+        <v>0.9931067611859509</v>
       </c>
       <c r="D14">
-        <v>0.9944064150805917</v>
+        <v>1.024606767116097</v>
       </c>
       <c r="E14">
-        <v>0.7973755573428281</v>
+        <v>1.00788592503308</v>
       </c>
       <c r="F14">
-        <v>0.786224067878268</v>
+        <v>1.013602816656624</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014266336998151</v>
+        <v>1.0475125375609</v>
       </c>
       <c r="J14">
-        <v>0.8037729014463851</v>
+        <v>1.022805213890542</v>
       </c>
       <c r="K14">
-        <v>1.00945170330802</v>
+        <v>1.039095471900689</v>
       </c>
       <c r="L14">
-        <v>0.8175143246842231</v>
+        <v>1.0226774169141</v>
       </c>
       <c r="M14">
-        <v>0.8067589996445056</v>
+        <v>1.028289322240934</v>
       </c>
       <c r="N14">
-        <v>0.8049143511604795</v>
+        <v>1.024257714611664</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7690631460397821</v>
+        <v>0.9941207189809746</v>
       </c>
       <c r="D15">
-        <v>0.9961628934725801</v>
+        <v>1.025086697238677</v>
       </c>
       <c r="E15">
-        <v>0.8059572029387708</v>
+        <v>1.008762100625761</v>
       </c>
       <c r="F15">
-        <v>0.7954314672987248</v>
+        <v>1.014527434690865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015802173795793</v>
+        <v>1.047881367152575</v>
       </c>
       <c r="J15">
-        <v>0.8123835609683816</v>
+        <v>1.023587561877745</v>
       </c>
       <c r="K15">
-        <v>1.011085204310684</v>
+        <v>1.039481141407142</v>
       </c>
       <c r="L15">
-        <v>0.8256777413968326</v>
+        <v>1.023449626700163</v>
       </c>
       <c r="M15">
-        <v>0.8155117785568152</v>
+        <v>1.029110052810152</v>
       </c>
       <c r="N15">
-        <v>0.8135372388066533</v>
+        <v>1.025041173622746</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8113485721474182</v>
+        <v>0.9999275652324888</v>
       </c>
       <c r="D16">
-        <v>1.004148987210847</v>
+        <v>1.027841450756224</v>
       </c>
       <c r="E16">
-        <v>0.8431163388724392</v>
+        <v>1.013783480320521</v>
       </c>
       <c r="F16">
-        <v>0.8352732915277259</v>
+        <v>1.01982706221887</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022606187033092</v>
+        <v>1.049990452658062</v>
       </c>
       <c r="J16">
-        <v>0.8496194576395572</v>
+        <v>1.028067262863934</v>
       </c>
       <c r="K16">
-        <v>1.018407273528814</v>
+        <v>1.041690321777582</v>
       </c>
       <c r="L16">
-        <v>0.8609955952444223</v>
+        <v>1.027872290530191</v>
       </c>
       <c r="M16">
-        <v>0.8533779798277401</v>
+        <v>1.033811674170243</v>
       </c>
       <c r="N16">
-        <v>0.8508260147221192</v>
+        <v>1.029527236298164</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8313355622105706</v>
+        <v>1.00349020248365</v>
       </c>
       <c r="D17">
-        <v>1.008151858989041</v>
+        <v>1.029536707335718</v>
       </c>
       <c r="E17">
-        <v>0.8607622568411885</v>
+        <v>1.016867210828091</v>
       </c>
       <c r="F17">
-        <v>0.8541812753091182</v>
+        <v>1.023082221975441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025916296605106</v>
+        <v>1.051281528976978</v>
       </c>
       <c r="J17">
-        <v>0.8672737070237296</v>
+        <v>1.030814914933672</v>
       </c>
       <c r="K17">
-        <v>1.02201845050755</v>
+        <v>1.043045939777324</v>
       </c>
       <c r="L17">
-        <v>0.8777486503358553</v>
+        <v>1.030585821868385</v>
       </c>
       <c r="M17">
-        <v>0.8713411581880138</v>
+        <v>1.036697288579816</v>
       </c>
       <c r="N17">
-        <v>0.8685053351653879</v>
+        <v>1.032278790349001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8416818801094137</v>
+        <v>1.005540830591964</v>
       </c>
       <c r="D18">
-        <v>1.010279774294621</v>
+        <v>1.030514219869855</v>
       </c>
       <c r="E18">
-        <v>0.8699150056380444</v>
+        <v>1.018643202392835</v>
       </c>
       <c r="F18">
-        <v>0.863986492916846</v>
+        <v>1.024957144248692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027650860716964</v>
+        <v>1.052023574502212</v>
       </c>
       <c r="J18">
-        <v>0.8764233906428801</v>
+        <v>1.032396133999206</v>
       </c>
       <c r="K18">
-        <v>1.023923393670767</v>
+        <v>1.043826235346133</v>
       </c>
       <c r="L18">
-        <v>0.8864331792628257</v>
+        <v>1.032147706587275</v>
       </c>
       <c r="M18">
-        <v>0.8806539102215957</v>
+        <v>1.038358555070703</v>
       </c>
       <c r="N18">
-        <v>0.8776680123847608</v>
+        <v>1.033862254926977</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8450348524569505</v>
+        <v>1.006235518188652</v>
       </c>
       <c r="D19">
-        <v>1.010977415262291</v>
+        <v>1.030845653707288</v>
       </c>
       <c r="E19">
-        <v>0.8728837054741474</v>
+        <v>1.019245019360321</v>
       </c>
       <c r="F19">
-        <v>0.8671665642670641</v>
+        <v>1.025592519362617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02821587429948</v>
+        <v>1.052274767050099</v>
       </c>
       <c r="J19">
-        <v>0.8793899845423668</v>
+        <v>1.032931744656139</v>
       </c>
       <c r="K19">
-        <v>1.024545774947374</v>
+        <v>1.044090570082621</v>
       </c>
       <c r="L19">
-        <v>0.8892492287680711</v>
+        <v>1.032676818389488</v>
       </c>
       <c r="M19">
-        <v>0.8836738438696028</v>
+        <v>1.038921390154383</v>
       </c>
       <c r="N19">
-        <v>0.880638819187858</v>
+        <v>1.034398626212478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8293398035002044</v>
+        <v>1.003110828902404</v>
       </c>
       <c r="D20">
-        <v>1.00774573808482</v>
+        <v>1.029356002040308</v>
       </c>
       <c r="E20">
-        <v>0.8589981255968948</v>
+        <v>1.016538727267777</v>
       </c>
       <c r="F20">
-        <v>0.8522912328299067</v>
+        <v>1.022735456709872</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025583305577815</v>
+        <v>1.051144158642091</v>
       </c>
       <c r="J20">
-        <v>0.8655095792153694</v>
+        <v>1.030522357766237</v>
       </c>
       <c r="K20">
-        <v>1.021653741805686</v>
+        <v>1.042901581647659</v>
       </c>
       <c r="L20">
-        <v>0.8760743553308828</v>
+        <v>1.030296866177035</v>
       </c>
       <c r="M20">
-        <v>0.869545831347611</v>
+        <v>1.036389973706897</v>
       </c>
       <c r="N20">
-        <v>0.8667387020931915</v>
+        <v>1.031985817716832</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7540650551510882</v>
+        <v>0.992620420784283</v>
       </c>
       <c r="D21">
-        <v>0.9934920096577194</v>
+        <v>1.02437668722475</v>
       </c>
       <c r="E21">
-        <v>0.7928417454830339</v>
+        <v>1.00746573817693</v>
       </c>
       <c r="F21">
-        <v>0.7813585504986913</v>
+        <v>1.013159409380818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013460679096784</v>
+        <v>1.047335575064592</v>
       </c>
       <c r="J21">
-        <v>0.7992220337320521</v>
+        <v>1.022429952486253</v>
       </c>
       <c r="K21">
-        <v>1.008597735846811</v>
+        <v>1.038910498775137</v>
       </c>
       <c r="L21">
-        <v>0.8132004513046851</v>
+        <v>1.022307036958813</v>
       </c>
       <c r="M21">
-        <v>0.8021335347142121</v>
+        <v>1.027895689123839</v>
       </c>
       <c r="N21">
-        <v>0.8003570206920001</v>
+        <v>1.023881920293139</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7540650551510882</v>
+        <v>0.9857468551814691</v>
       </c>
       <c r="D22">
-        <v>0.9934920096577194</v>
+        <v>1.021133113236717</v>
       </c>
       <c r="E22">
-        <v>0.7928417454830339</v>
+        <v>1.001531824715483</v>
       </c>
       <c r="F22">
-        <v>0.7813585504986913</v>
+        <v>1.006898313847445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013460679096784</v>
+        <v>1.044830965027694</v>
       </c>
       <c r="J22">
-        <v>0.7992220337320521</v>
+        <v>1.017125635417773</v>
       </c>
       <c r="K22">
-        <v>1.008597735846811</v>
+        <v>1.03629723088239</v>
       </c>
       <c r="L22">
-        <v>0.8132004513046851</v>
+        <v>1.017072996814884</v>
       </c>
       <c r="M22">
-        <v>0.8021335347142121</v>
+        <v>1.02233434136353</v>
       </c>
       <c r="N22">
-        <v>0.8003570206920001</v>
+        <v>1.018570070486007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7540650551510882</v>
+        <v>0.9894186334268348</v>
       </c>
       <c r="D23">
-        <v>0.9934920096577194</v>
+        <v>1.022863874179652</v>
       </c>
       <c r="E23">
-        <v>0.7928417454830339</v>
+        <v>1.004700557292113</v>
       </c>
       <c r="F23">
-        <v>0.7813585504986913</v>
+        <v>1.01024159415419</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013460679096784</v>
+        <v>1.046169698962106</v>
       </c>
       <c r="J23">
-        <v>0.7992220337320521</v>
+        <v>1.019959277241584</v>
       </c>
       <c r="K23">
-        <v>1.008597735846811</v>
+        <v>1.037692954958445</v>
       </c>
       <c r="L23">
-        <v>0.8132004513046851</v>
+        <v>1.019868799676031</v>
       </c>
       <c r="M23">
-        <v>0.8021335347142121</v>
+        <v>1.025304680443904</v>
       </c>
       <c r="N23">
-        <v>0.8003570206920001</v>
+        <v>1.021407736406231</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7540650551510882</v>
+        <v>1.00328233583675</v>
       </c>
       <c r="D24">
-        <v>0.9934920096577194</v>
+        <v>1.029437689795597</v>
       </c>
       <c r="E24">
-        <v>0.7928417454830339</v>
+        <v>1.016687224726633</v>
       </c>
       <c r="F24">
-        <v>0.7813585504986913</v>
+        <v>1.022892218149518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013460679096784</v>
+        <v>1.051206264317837</v>
       </c>
       <c r="J24">
-        <v>0.7992220337320521</v>
+        <v>1.030654617770243</v>
       </c>
       <c r="K24">
-        <v>1.008597735846811</v>
+        <v>1.042966842947522</v>
       </c>
       <c r="L24">
-        <v>0.8132004513046851</v>
+        <v>1.030427497081673</v>
       </c>
       <c r="M24">
-        <v>0.8021335347142121</v>
+        <v>1.036528903386455</v>
       </c>
       <c r="N24">
-        <v>0.8003570206920001</v>
+        <v>1.032118265545214</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7540650551510882</v>
+        <v>1.018306444874399</v>
       </c>
       <c r="D25">
-        <v>0.9934920096577194</v>
+        <v>1.03662683658226</v>
       </c>
       <c r="E25">
-        <v>0.7928417454830339</v>
+        <v>1.029715518533668</v>
       </c>
       <c r="F25">
-        <v>0.7813585504986913</v>
+        <v>1.036649839308873</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.013460679096784</v>
+        <v>1.056622520441281</v>
       </c>
       <c r="J25">
-        <v>0.7992220337320521</v>
+        <v>1.042233048990655</v>
       </c>
       <c r="K25">
-        <v>1.008597735846811</v>
+        <v>1.04868198205067</v>
       </c>
       <c r="L25">
-        <v>0.8132004513046851</v>
+        <v>1.041869410218628</v>
       </c>
       <c r="M25">
-        <v>0.8021335347142121</v>
+        <v>1.048704658902968</v>
       </c>
       <c r="N25">
-        <v>0.8003570206920001</v>
+        <v>1.043713139466024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029565587594277</v>
+        <v>1.070034384315117</v>
       </c>
       <c r="D2">
-        <v>1.042054842912576</v>
+        <v>1.048162697484104</v>
       </c>
       <c r="E2">
-        <v>1.039503905855295</v>
+        <v>1.073888080771541</v>
       </c>
       <c r="F2">
-        <v>1.046992505874206</v>
+        <v>1.083075494277823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060643713471733</v>
+        <v>1.052767953902756</v>
       </c>
       <c r="J2">
-        <v>1.050896577369335</v>
+        <v>1.074966085611274</v>
       </c>
       <c r="K2">
-        <v>1.05295780253729</v>
+        <v>1.050923311132038</v>
       </c>
       <c r="L2">
-        <v>1.050439012471153</v>
+        <v>1.076578749374504</v>
       </c>
       <c r="M2">
-        <v>1.057833795312161</v>
+        <v>1.085742052965537</v>
       </c>
       <c r="N2">
-        <v>1.052388971048722</v>
+        <v>1.076492660753175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037375869000831</v>
+        <v>1.07157280831684</v>
       </c>
       <c r="D3">
-        <v>1.045838633534671</v>
+        <v>1.048880437935124</v>
       </c>
       <c r="E3">
-        <v>1.046306011339913</v>
+        <v>1.075267929392525</v>
       </c>
       <c r="F3">
-        <v>1.054183532225209</v>
+        <v>1.084546861236421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063409443048181</v>
+        <v>1.053212776556474</v>
       </c>
       <c r="J3">
-        <v>1.056897011252142</v>
+        <v>1.076159124924949</v>
       </c>
       <c r="K3">
-        <v>1.055916763125835</v>
+        <v>1.051453285663418</v>
       </c>
       <c r="L3">
-        <v>1.056378793695619</v>
+        <v>1.077774235732329</v>
       </c>
       <c r="M3">
-        <v>1.064167067171484</v>
+        <v>1.087030596296606</v>
       </c>
       <c r="N3">
-        <v>1.058397926235902</v>
+        <v>1.077687394319519</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.042276436220139</v>
+        <v>1.072566765406819</v>
       </c>
       <c r="D4">
-        <v>1.048219895327982</v>
+        <v>1.049344120932974</v>
       </c>
       <c r="E4">
-        <v>1.05057891240207</v>
+        <v>1.076159517611225</v>
       </c>
       <c r="F4">
-        <v>1.058702502800027</v>
+        <v>1.085497845376303</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065133277326466</v>
+        <v>1.053498617270882</v>
       </c>
       <c r="J4">
-        <v>1.060657224681728</v>
+        <v>1.076929168365494</v>
       </c>
       <c r="K4">
-        <v>1.05776920053292</v>
+        <v>1.051794801590235</v>
       </c>
       <c r="L4">
-        <v>1.060102938692066</v>
+        <v>1.078545992587246</v>
       </c>
       <c r="M4">
-        <v>1.068140531439375</v>
+        <v>1.087862759373424</v>
       </c>
       <c r="N4">
-        <v>1.062163479599861</v>
+        <v>1.078458531310075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.044302051783835</v>
+        <v>1.072984272344975</v>
       </c>
       <c r="D5">
-        <v>1.049205686641681</v>
+        <v>1.049538876905232</v>
       </c>
       <c r="E5">
-        <v>1.052346176370811</v>
+        <v>1.076534044555907</v>
       </c>
       <c r="F5">
-        <v>1.060571967184276</v>
+        <v>1.085897385178928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065842967395978</v>
+        <v>1.05361831074529</v>
       </c>
       <c r="J5">
-        <v>1.062210276668506</v>
+        <v>1.077252437928068</v>
       </c>
       <c r="K5">
-        <v>1.058533771431039</v>
+        <v>1.051938038410369</v>
       </c>
       <c r="L5">
-        <v>1.061641546801065</v>
+        <v>1.07887001346725</v>
       </c>
       <c r="M5">
-        <v>1.069782768879453</v>
+        <v>1.088212221296908</v>
       </c>
       <c r="N5">
-        <v>1.063718737098597</v>
+        <v>1.078782259952507</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.044640191184631</v>
+        <v>1.073054353149113</v>
       </c>
       <c r="D6">
-        <v>1.04937032999165</v>
+        <v>1.049571566992251</v>
       </c>
       <c r="E6">
-        <v>1.052641250334893</v>
+        <v>1.076596912061144</v>
       </c>
       <c r="F6">
-        <v>1.060884130404894</v>
+        <v>1.085964454973303</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065961267589185</v>
+        <v>1.053638380078841</v>
       </c>
       <c r="J6">
-        <v>1.062469457531553</v>
+        <v>1.077306689702969</v>
       </c>
       <c r="K6">
-        <v>1.058661333167983</v>
+        <v>1.051962068823876</v>
       </c>
       <c r="L6">
-        <v>1.061898343522338</v>
+        <v>1.078924393205727</v>
       </c>
       <c r="M6">
-        <v>1.070056898255911</v>
+        <v>1.088270875419499</v>
       </c>
       <c r="N6">
-        <v>1.063978286028197</v>
+        <v>1.078836588771151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.042303635844468</v>
+        <v>1.072572345530699</v>
       </c>
       <c r="D7">
-        <v>1.048233126626377</v>
+        <v>1.049346723962912</v>
       </c>
       <c r="E7">
-        <v>1.050602638723646</v>
+        <v>1.076164523216712</v>
       </c>
       <c r="F7">
-        <v>1.05872759951508</v>
+        <v>1.085503185036182</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06514281828877</v>
+        <v>1.053500218480488</v>
       </c>
       <c r="J7">
-        <v>1.060678083657481</v>
+        <v>1.076933489696309</v>
       </c>
       <c r="K7">
-        <v>1.057779471656735</v>
+        <v>1.051796716847534</v>
       </c>
       <c r="L7">
-        <v>1.06012360189351</v>
+        <v>1.078550323835555</v>
       </c>
       <c r="M7">
-        <v>1.068162583890268</v>
+        <v>1.087867430384064</v>
       </c>
       <c r="N7">
-        <v>1.062184368197752</v>
+        <v>1.078462858777675</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032238151679359</v>
+        <v>1.070554618552743</v>
       </c>
       <c r="D8">
-        <v>1.043347973293415</v>
+        <v>1.04840541601528</v>
       </c>
       <c r="E8">
-        <v>1.041830391846407</v>
+        <v>1.074354673071131</v>
       </c>
       <c r="F8">
-        <v>1.049451643665596</v>
+        <v>1.083572979090052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061592488753837</v>
+        <v>1.052918697071807</v>
       </c>
       <c r="J8">
-        <v>1.052950803594126</v>
+        <v>1.075369682653479</v>
       </c>
       <c r="K8">
-        <v>1.053971117453419</v>
+        <v>1.051102712177098</v>
       </c>
       <c r="L8">
-        <v>1.05247205650762</v>
+        <v>1.076983146409438</v>
       </c>
       <c r="M8">
-        <v>1.06000097019419</v>
+        <v>1.08617785941975</v>
       </c>
       <c r="N8">
-        <v>1.054446114510375</v>
+        <v>1.076896830949474</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013223283390251</v>
+        <v>1.066987233941491</v>
       </c>
       <c r="D9">
-        <v>1.034187315635344</v>
+        <v>1.046740950377116</v>
       </c>
       <c r="E9">
-        <v>1.025303272240593</v>
+        <v>1.071155502837127</v>
       </c>
       <c r="F9">
-        <v>1.031989598450039</v>
+        <v>1.080163070516155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054795774374136</v>
+        <v>1.051878643819314</v>
       </c>
       <c r="J9">
-        <v>1.0383175817851</v>
+        <v>1.072598981895755</v>
       </c>
       <c r="K9">
-        <v>1.046749051783772</v>
+        <v>1.049868883349711</v>
       </c>
       <c r="L9">
-        <v>1.037998740298903</v>
+        <v>1.074207508128173</v>
       </c>
       <c r="M9">
-        <v>1.044584144201573</v>
+        <v>1.083188007487887</v>
       </c>
       <c r="N9">
-        <v>1.039792111847926</v>
+        <v>1.07412219547887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.999521148665253</v>
+        <v>1.064600481217922</v>
       </c>
       <c r="D10">
-        <v>1.027648306417658</v>
+        <v>1.045627333005545</v>
       </c>
       <c r="E10">
-        <v>1.013431840016553</v>
+        <v>1.069015608383513</v>
       </c>
       <c r="F10">
-        <v>1.019455901018151</v>
+        <v>1.077883566394281</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049843024132002</v>
+        <v>1.051174817347994</v>
       </c>
       <c r="J10">
-        <v>1.027753778160553</v>
+        <v>1.070741333950553</v>
       </c>
       <c r="K10">
-        <v>1.041535683141713</v>
+        <v>1.049038883255621</v>
       </c>
       <c r="L10">
-        <v>1.027562740688866</v>
+        <v>1.072347250020687</v>
       </c>
       <c r="M10">
-        <v>1.033482539360808</v>
+        <v>1.081185904384812</v>
       </c>
       <c r="N10">
-        <v>1.029213306410547</v>
+        <v>1.072261909460511</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9933006861100628</v>
+        <v>1.063564863713454</v>
       </c>
       <c r="D11">
-        <v>1.024698530998425</v>
+        <v>1.045144158687211</v>
       </c>
       <c r="E11">
-        <v>1.008053483792142</v>
+        <v>1.068087232899305</v>
       </c>
       <c r="F11">
-        <v>1.013779637065779</v>
+        <v>1.076894943012253</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047583090274144</v>
+        <v>1.050867539549278</v>
       </c>
       <c r="J11">
-        <v>1.022954844756781</v>
+        <v>1.069934372918841</v>
       </c>
       <c r="K11">
-        <v>1.039169230817162</v>
+        <v>1.048677691083048</v>
       </c>
       <c r="L11">
-        <v>1.022825104714807</v>
+        <v>1.071539322242764</v>
       </c>
       <c r="M11">
-        <v>1.028446285621948</v>
+        <v>1.080316780984755</v>
       </c>
       <c r="N11">
-        <v>1.024407557970896</v>
+        <v>1.071453802451574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9909425681030096</v>
+        <v>1.063179858349864</v>
       </c>
       <c r="D12">
-        <v>1.023583504967832</v>
+        <v>1.04496453830931</v>
       </c>
       <c r="E12">
-        <v>1.006016446611836</v>
+        <v>1.067742116573449</v>
       </c>
       <c r="F12">
-        <v>1.011630081221115</v>
+        <v>1.076527478179659</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046724795727538</v>
+        <v>1.050753021956911</v>
       </c>
       <c r="J12">
-        <v>1.021135263615541</v>
+        <v>1.069634235538956</v>
       </c>
       <c r="K12">
-        <v>1.038272412800586</v>
+        <v>1.048543255939511</v>
       </c>
       <c r="L12">
-        <v>1.021029281657075</v>
+        <v>1.071238850490606</v>
       </c>
       <c r="M12">
-        <v>1.026537808380935</v>
+        <v>1.079993611803902</v>
       </c>
       <c r="N12">
-        <v>1.022585392815727</v>
+        <v>1.071153238842183</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.991450621994896</v>
+        <v>1.063262458438692</v>
       </c>
       <c r="D13">
-        <v>1.023823584876201</v>
+        <v>1.045003074217847</v>
       </c>
       <c r="E13">
-        <v>1.006455237350303</v>
+        <v>1.067816157828278</v>
       </c>
       <c r="F13">
-        <v>1.012093095191362</v>
+        <v>1.076606311902935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046909782784245</v>
+        <v>1.050777603654084</v>
       </c>
       <c r="J13">
-        <v>1.021527303936268</v>
+        <v>1.069698634070974</v>
       </c>
       <c r="K13">
-        <v>1.038465614483276</v>
+        <v>1.048572105093961</v>
       </c>
       <c r="L13">
-        <v>1.021416179330644</v>
+        <v>1.071303319625362</v>
       </c>
       <c r="M13">
-        <v>1.02694895223778</v>
+        <v>1.08006294811038</v>
       </c>
       <c r="N13">
-        <v>1.022977989878677</v>
+        <v>1.071217728827503</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9931067611859509</v>
+        <v>1.063533045857022</v>
       </c>
       <c r="D14">
-        <v>1.024606767116097</v>
+        <v>1.045129314240536</v>
       </c>
       <c r="E14">
-        <v>1.00788592503308</v>
+        <v>1.06805871115892</v>
       </c>
       <c r="F14">
-        <v>1.013602816656624</v>
+        <v>1.076864573322694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0475125375609</v>
+        <v>1.050858081277174</v>
       </c>
       <c r="J14">
-        <v>1.022805213890542</v>
+        <v>1.069909571593323</v>
       </c>
       <c r="K14">
-        <v>1.039095471900689</v>
+        <v>1.0486665842005</v>
       </c>
       <c r="L14">
-        <v>1.0226774169141</v>
+        <v>1.071514492772705</v>
       </c>
       <c r="M14">
-        <v>1.028289322240934</v>
+        <v>1.080290074659765</v>
       </c>
       <c r="N14">
-        <v>1.024257714611664</v>
+        <v>1.071428965905329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9941207189809746</v>
+        <v>1.063699719554725</v>
       </c>
       <c r="D15">
-        <v>1.025086697238677</v>
+        <v>1.045207075220629</v>
       </c>
       <c r="E15">
-        <v>1.008762100625761</v>
+        <v>1.068208119418286</v>
       </c>
       <c r="F15">
-        <v>1.014527434690865</v>
+        <v>1.077023663849785</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047881367152575</v>
+        <v>1.050907615632147</v>
       </c>
       <c r="J15">
-        <v>1.023587561877745</v>
+        <v>1.070039484449488</v>
       </c>
       <c r="K15">
-        <v>1.039481141407142</v>
+        <v>1.048724759744294</v>
       </c>
       <c r="L15">
-        <v>1.023449626700163</v>
+        <v>1.071644554085733</v>
       </c>
       <c r="M15">
-        <v>1.029110052810152</v>
+        <v>1.080429969799516</v>
       </c>
       <c r="N15">
-        <v>1.025041173622746</v>
+        <v>1.071559063252651</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9999275652324888</v>
+        <v>1.064669165870817</v>
       </c>
       <c r="D16">
-        <v>1.027841450756224</v>
+        <v>1.04565937906526</v>
       </c>
       <c r="E16">
-        <v>1.013783480320521</v>
+        <v>1.069077183286899</v>
       </c>
       <c r="F16">
-        <v>1.01982706221887</v>
+        <v>1.077949144015974</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049990452658062</v>
+        <v>1.051195157101845</v>
       </c>
       <c r="J16">
-        <v>1.028067262863934</v>
+        <v>1.070794834154664</v>
       </c>
       <c r="K16">
-        <v>1.041690321777582</v>
+        <v>1.049062816336106</v>
       </c>
       <c r="L16">
-        <v>1.027872290530191</v>
+        <v>1.072400817842366</v>
       </c>
       <c r="M16">
-        <v>1.033811674170243</v>
+        <v>1.081243538253616</v>
       </c>
       <c r="N16">
-        <v>1.029527236298164</v>
+        <v>1.072315485641048</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00349020248365</v>
+        <v>1.065276694731033</v>
       </c>
       <c r="D17">
-        <v>1.029536707335718</v>
+        <v>1.045942835977822</v>
       </c>
       <c r="E17">
-        <v>1.016867210828091</v>
+        <v>1.069621840120685</v>
       </c>
       <c r="F17">
-        <v>1.023082221975441</v>
+        <v>1.078529243636965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051281528976978</v>
+        <v>1.051374848552201</v>
       </c>
       <c r="J17">
-        <v>1.030814914933672</v>
+        <v>1.071267947175383</v>
       </c>
       <c r="K17">
-        <v>1.043045939777324</v>
+        <v>1.049274387629701</v>
       </c>
       <c r="L17">
-        <v>1.030585821868385</v>
+        <v>1.072874548101954</v>
       </c>
       <c r="M17">
-        <v>1.036697288579816</v>
+        <v>1.081753274025777</v>
       </c>
       <c r="N17">
-        <v>1.032278790349001</v>
+        <v>1.072789270536523</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005540830591964</v>
+        <v>1.065630850428795</v>
       </c>
       <c r="D18">
-        <v>1.030514219869855</v>
+        <v>1.046108078089541</v>
       </c>
       <c r="E18">
-        <v>1.018643202392835</v>
+        <v>1.069939357345002</v>
       </c>
       <c r="F18">
-        <v>1.024957144248692</v>
+        <v>1.078867453750961</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052023574502212</v>
+        <v>1.051479416946382</v>
       </c>
       <c r="J18">
-        <v>1.032396133999206</v>
+        <v>1.071543656872336</v>
       </c>
       <c r="K18">
-        <v>1.043826235346133</v>
+        <v>1.049397620395986</v>
       </c>
       <c r="L18">
-        <v>1.032147706587275</v>
+        <v>1.073150633585541</v>
       </c>
       <c r="M18">
-        <v>1.038358555070703</v>
+        <v>1.082050382570138</v>
       </c>
       <c r="N18">
-        <v>1.033862254926977</v>
+        <v>1.07306537177287</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006235518188652</v>
+        <v>1.065751573787819</v>
       </c>
       <c r="D19">
-        <v>1.030845653707288</v>
+        <v>1.046164405581133</v>
       </c>
       <c r="E19">
-        <v>1.019245019360321</v>
+        <v>1.070047593593522</v>
       </c>
       <c r="F19">
-        <v>1.025592519362617</v>
+        <v>1.078982749095725</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052274767050099</v>
+        <v>1.051515031006208</v>
       </c>
       <c r="J19">
-        <v>1.032931744656139</v>
+        <v>1.071637624721792</v>
       </c>
       <c r="K19">
-        <v>1.044090570082621</v>
+        <v>1.049439610279528</v>
       </c>
       <c r="L19">
-        <v>1.032676818389488</v>
+        <v>1.07324473223715</v>
       </c>
       <c r="M19">
-        <v>1.038921390154383</v>
+        <v>1.082151653225167</v>
       </c>
       <c r="N19">
-        <v>1.034398626212478</v>
+        <v>1.07315947306745</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003110828902404</v>
+        <v>1.065211533971393</v>
       </c>
       <c r="D20">
-        <v>1.029356002040308</v>
+        <v>1.045912433421098</v>
       </c>
       <c r="E20">
-        <v>1.016538727267777</v>
+        <v>1.069563421433496</v>
       </c>
       <c r="F20">
-        <v>1.022735456709872</v>
+        <v>1.078467020238214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051144158642091</v>
+        <v>1.051355594473224</v>
       </c>
       <c r="J20">
-        <v>1.030522357766237</v>
+        <v>1.071217212447583</v>
       </c>
       <c r="K20">
-        <v>1.042901581647659</v>
+        <v>1.049251705963175</v>
       </c>
       <c r="L20">
-        <v>1.030296866177035</v>
+        <v>1.072823745518809</v>
       </c>
       <c r="M20">
-        <v>1.036389973706897</v>
+        <v>1.081698606154478</v>
       </c>
       <c r="N20">
-        <v>1.031985817716832</v>
+        <v>1.072738463759591</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.992620420784283</v>
+        <v>1.063453373819801</v>
       </c>
       <c r="D21">
-        <v>1.02437668722475</v>
+        <v>1.045092143800655</v>
       </c>
       <c r="E21">
-        <v>1.00746573817693</v>
+        <v>1.067987292940063</v>
       </c>
       <c r="F21">
-        <v>1.013159409380818</v>
+        <v>1.076788528631465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047335575064592</v>
+        <v>1.050834393162084</v>
       </c>
       <c r="J21">
-        <v>1.022429952486253</v>
+        <v>1.069847466745301</v>
       </c>
       <c r="K21">
-        <v>1.038910498775137</v>
+        <v>1.048638769994039</v>
       </c>
       <c r="L21">
-        <v>1.022307036958813</v>
+        <v>1.071452317855293</v>
       </c>
       <c r="M21">
-        <v>1.027895689123839</v>
+        <v>1.080223200945144</v>
       </c>
       <c r="N21">
-        <v>1.023881920293139</v>
+        <v>1.071366772861299</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9857468551814691</v>
+        <v>1.062346029327974</v>
       </c>
       <c r="D22">
-        <v>1.021133113236717</v>
+        <v>1.044575538265452</v>
       </c>
       <c r="E22">
-        <v>1.001531824715483</v>
+        <v>1.066994715678862</v>
       </c>
       <c r="F22">
-        <v>1.006898313847445</v>
+        <v>1.075731766403614</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044830965027694</v>
+        <v>1.050504487780306</v>
       </c>
       <c r="J22">
-        <v>1.017125635417773</v>
+        <v>1.068983957694216</v>
       </c>
       <c r="K22">
-        <v>1.03629723088239</v>
+        <v>1.048251816257428</v>
       </c>
       <c r="L22">
-        <v>1.017072996814884</v>
+        <v>1.070587894393779</v>
       </c>
       <c r="M22">
-        <v>1.02233434136353</v>
+        <v>1.079293595459855</v>
       </c>
       <c r="N22">
-        <v>1.018570070486007</v>
+        <v>1.070502037528316</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9894186334268348</v>
+        <v>1.062933238799713</v>
       </c>
       <c r="D23">
-        <v>1.022863874179652</v>
+        <v>1.044849482563921</v>
       </c>
       <c r="E23">
-        <v>1.004700557292113</v>
+        <v>1.067521054219969</v>
       </c>
       <c r="F23">
-        <v>1.01024159415419</v>
+        <v>1.0762921141784</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046169698962106</v>
+        <v>1.050679586886262</v>
       </c>
       <c r="J23">
-        <v>1.019959277241584</v>
+        <v>1.069441940265885</v>
       </c>
       <c r="K23">
-        <v>1.037692954958445</v>
+        <v>1.048457097989308</v>
       </c>
       <c r="L23">
-        <v>1.019868799676031</v>
+        <v>1.071046348092753</v>
       </c>
       <c r="M23">
-        <v>1.025304680443904</v>
+        <v>1.079786585220983</v>
       </c>
       <c r="N23">
-        <v>1.021407736406231</v>
+        <v>1.070960670487767</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00328233583675</v>
+        <v>1.065240977949385</v>
       </c>
       <c r="D24">
-        <v>1.029437689795597</v>
+        <v>1.045926171317043</v>
       </c>
       <c r="E24">
-        <v>1.016687224726633</v>
+        <v>1.069589818855018</v>
       </c>
       <c r="F24">
-        <v>1.022892218149518</v>
+        <v>1.078495136784225</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051206264317837</v>
+        <v>1.051364295312437</v>
       </c>
       <c r="J24">
-        <v>1.030654617770243</v>
+        <v>1.071240138057205</v>
       </c>
       <c r="K24">
-        <v>1.042966842947522</v>
+        <v>1.049261955367289</v>
       </c>
       <c r="L24">
-        <v>1.030427497081673</v>
+        <v>1.072846701740646</v>
       </c>
       <c r="M24">
-        <v>1.036528903386455</v>
+        <v>1.081723308866761</v>
       </c>
       <c r="N24">
-        <v>1.032118265545214</v>
+        <v>1.072761421926207</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018306444874399</v>
+        <v>1.067910948978508</v>
       </c>
       <c r="D25">
-        <v>1.03662683658226</v>
+        <v>1.047171947565168</v>
       </c>
       <c r="E25">
-        <v>1.029715518533668</v>
+        <v>1.07198378930629</v>
       </c>
       <c r="F25">
-        <v>1.036649839308873</v>
+        <v>1.081045680788667</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056622520441281</v>
+        <v>1.05214935503327</v>
       </c>
       <c r="J25">
-        <v>1.042233048990655</v>
+        <v>1.073317099618352</v>
       </c>
       <c r="K25">
-        <v>1.04868198205067</v>
+        <v>1.05018916174903</v>
       </c>
       <c r="L25">
-        <v>1.041869410218628</v>
+        <v>1.074926782801829</v>
       </c>
       <c r="M25">
-        <v>1.048704658902968</v>
+        <v>1.083962490330762</v>
       </c>
       <c r="N25">
-        <v>1.043713139466024</v>
+        <v>1.074841333011002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.070034384315117</v>
+        <v>1.029565587594278</v>
       </c>
       <c r="D2">
-        <v>1.048162697484104</v>
+        <v>1.042054842912577</v>
       </c>
       <c r="E2">
-        <v>1.073888080771541</v>
+        <v>1.039503905855296</v>
       </c>
       <c r="F2">
-        <v>1.083075494277823</v>
+        <v>1.046992505874207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052767953902756</v>
+        <v>1.060643713471734</v>
       </c>
       <c r="J2">
-        <v>1.074966085611274</v>
+        <v>1.050896577369336</v>
       </c>
       <c r="K2">
-        <v>1.050923311132038</v>
+        <v>1.05295780253729</v>
       </c>
       <c r="L2">
-        <v>1.076578749374504</v>
+        <v>1.050439012471154</v>
       </c>
       <c r="M2">
-        <v>1.085742052965537</v>
+        <v>1.057833795312161</v>
       </c>
       <c r="N2">
-        <v>1.076492660753175</v>
+        <v>1.052388971048722</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07157280831684</v>
+        <v>1.03737586900083</v>
       </c>
       <c r="D3">
-        <v>1.048880437935124</v>
+        <v>1.045838633534671</v>
       </c>
       <c r="E3">
-        <v>1.075267929392525</v>
+        <v>1.046306011339912</v>
       </c>
       <c r="F3">
-        <v>1.084546861236421</v>
+        <v>1.054183532225207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053212776556474</v>
+        <v>1.063409443048181</v>
       </c>
       <c r="J3">
-        <v>1.076159124924949</v>
+        <v>1.056897011252141</v>
       </c>
       <c r="K3">
-        <v>1.051453285663418</v>
+        <v>1.055916763125835</v>
       </c>
       <c r="L3">
-        <v>1.077774235732329</v>
+        <v>1.056378793695619</v>
       </c>
       <c r="M3">
-        <v>1.087030596296606</v>
+        <v>1.064167067171484</v>
       </c>
       <c r="N3">
-        <v>1.077687394319519</v>
+        <v>1.058397926235901</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072566765406819</v>
+        <v>1.042276436220139</v>
       </c>
       <c r="D4">
-        <v>1.049344120932974</v>
+        <v>1.048219895327981</v>
       </c>
       <c r="E4">
-        <v>1.076159517611225</v>
+        <v>1.050578912402071</v>
       </c>
       <c r="F4">
-        <v>1.085497845376303</v>
+        <v>1.058702502800027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053498617270882</v>
+        <v>1.065133277326466</v>
       </c>
       <c r="J4">
-        <v>1.076929168365494</v>
+        <v>1.060657224681728</v>
       </c>
       <c r="K4">
-        <v>1.051794801590235</v>
+        <v>1.05776920053292</v>
       </c>
       <c r="L4">
-        <v>1.078545992587246</v>
+        <v>1.060102938692066</v>
       </c>
       <c r="M4">
-        <v>1.087862759373424</v>
+        <v>1.068140531439375</v>
       </c>
       <c r="N4">
-        <v>1.078458531310075</v>
+        <v>1.062163479599861</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072984272344975</v>
+        <v>1.044302051783834</v>
       </c>
       <c r="D5">
-        <v>1.049538876905232</v>
+        <v>1.049205686641681</v>
       </c>
       <c r="E5">
-        <v>1.076534044555907</v>
+        <v>1.052346176370811</v>
       </c>
       <c r="F5">
-        <v>1.085897385178928</v>
+        <v>1.060571967184275</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05361831074529</v>
+        <v>1.065842967395978</v>
       </c>
       <c r="J5">
-        <v>1.077252437928068</v>
+        <v>1.062210276668506</v>
       </c>
       <c r="K5">
-        <v>1.051938038410369</v>
+        <v>1.05853377143104</v>
       </c>
       <c r="L5">
-        <v>1.07887001346725</v>
+        <v>1.061641546801065</v>
       </c>
       <c r="M5">
-        <v>1.088212221296908</v>
+        <v>1.069782768879452</v>
       </c>
       <c r="N5">
-        <v>1.078782259952507</v>
+        <v>1.063718737098597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073054353149113</v>
+        <v>1.044640191184631</v>
       </c>
       <c r="D6">
-        <v>1.049571566992251</v>
+        <v>1.04937032999165</v>
       </c>
       <c r="E6">
-        <v>1.076596912061144</v>
+        <v>1.052641250334893</v>
       </c>
       <c r="F6">
-        <v>1.085964454973303</v>
+        <v>1.060884130404893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053638380078841</v>
+        <v>1.065961267589185</v>
       </c>
       <c r="J6">
-        <v>1.077306689702969</v>
+        <v>1.062469457531552</v>
       </c>
       <c r="K6">
-        <v>1.051962068823876</v>
+        <v>1.058661333167983</v>
       </c>
       <c r="L6">
-        <v>1.078924393205727</v>
+        <v>1.061898343522338</v>
       </c>
       <c r="M6">
-        <v>1.088270875419499</v>
+        <v>1.070056898255911</v>
       </c>
       <c r="N6">
-        <v>1.078836588771151</v>
+        <v>1.063978286028197</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072572345530699</v>
+        <v>1.042303635844468</v>
       </c>
       <c r="D7">
-        <v>1.049346723962912</v>
+        <v>1.048233126626377</v>
       </c>
       <c r="E7">
-        <v>1.076164523216712</v>
+        <v>1.050602638723646</v>
       </c>
       <c r="F7">
-        <v>1.085503185036182</v>
+        <v>1.05872759951508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053500218480488</v>
+        <v>1.06514281828877</v>
       </c>
       <c r="J7">
-        <v>1.076933489696309</v>
+        <v>1.060678083657481</v>
       </c>
       <c r="K7">
-        <v>1.051796716847534</v>
+        <v>1.057779471656735</v>
       </c>
       <c r="L7">
-        <v>1.078550323835555</v>
+        <v>1.06012360189351</v>
       </c>
       <c r="M7">
-        <v>1.087867430384064</v>
+        <v>1.068162583890268</v>
       </c>
       <c r="N7">
-        <v>1.078462858777675</v>
+        <v>1.062184368197752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070554618552743</v>
+        <v>1.032238151679358</v>
       </c>
       <c r="D8">
-        <v>1.04840541601528</v>
+        <v>1.043347973293415</v>
       </c>
       <c r="E8">
-        <v>1.074354673071131</v>
+        <v>1.041830391846406</v>
       </c>
       <c r="F8">
-        <v>1.083572979090052</v>
+        <v>1.049451643665595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052918697071807</v>
+        <v>1.061592488753837</v>
       </c>
       <c r="J8">
-        <v>1.075369682653479</v>
+        <v>1.052950803594125</v>
       </c>
       <c r="K8">
-        <v>1.051102712177098</v>
+        <v>1.053971117453418</v>
       </c>
       <c r="L8">
-        <v>1.076983146409438</v>
+        <v>1.052472056507619</v>
       </c>
       <c r="M8">
-        <v>1.08617785941975</v>
+        <v>1.060000970194189</v>
       </c>
       <c r="N8">
-        <v>1.076896830949474</v>
+        <v>1.054446114510374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066987233941491</v>
+        <v>1.013223283390249</v>
       </c>
       <c r="D9">
-        <v>1.046740950377116</v>
+        <v>1.034187315635343</v>
       </c>
       <c r="E9">
-        <v>1.071155502837127</v>
+        <v>1.025303272240592</v>
       </c>
       <c r="F9">
-        <v>1.080163070516155</v>
+        <v>1.031989598450037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051878643819314</v>
+        <v>1.054795774374135</v>
       </c>
       <c r="J9">
-        <v>1.072598981895755</v>
+        <v>1.038317581785099</v>
       </c>
       <c r="K9">
-        <v>1.049868883349711</v>
+        <v>1.046749051783771</v>
       </c>
       <c r="L9">
-        <v>1.074207508128173</v>
+        <v>1.037998740298901</v>
       </c>
       <c r="M9">
-        <v>1.083188007487887</v>
+        <v>1.044584144201572</v>
       </c>
       <c r="N9">
-        <v>1.07412219547887</v>
+        <v>1.039792111847925</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064600481217922</v>
+        <v>0.9995211486652542</v>
       </c>
       <c r="D10">
-        <v>1.045627333005545</v>
+        <v>1.027648306417658</v>
       </c>
       <c r="E10">
-        <v>1.069015608383513</v>
+        <v>1.013431840016554</v>
       </c>
       <c r="F10">
-        <v>1.077883566394281</v>
+        <v>1.019455901018152</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051174817347994</v>
+        <v>1.049843024132003</v>
       </c>
       <c r="J10">
-        <v>1.070741333950553</v>
+        <v>1.027753778160554</v>
       </c>
       <c r="K10">
-        <v>1.049038883255621</v>
+        <v>1.041535683141714</v>
       </c>
       <c r="L10">
-        <v>1.072347250020687</v>
+        <v>1.027562740688867</v>
       </c>
       <c r="M10">
-        <v>1.081185904384812</v>
+        <v>1.033482539360808</v>
       </c>
       <c r="N10">
-        <v>1.072261909460511</v>
+        <v>1.029213306410548</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063564863713454</v>
+        <v>0.9933006861100614</v>
       </c>
       <c r="D11">
-        <v>1.045144158687211</v>
+        <v>1.024698530998424</v>
       </c>
       <c r="E11">
-        <v>1.068087232899305</v>
+        <v>1.008053483792141</v>
       </c>
       <c r="F11">
-        <v>1.076894943012253</v>
+        <v>1.013779637065777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050867539549278</v>
+        <v>1.047583090274143</v>
       </c>
       <c r="J11">
-        <v>1.069934372918841</v>
+        <v>1.02295484475678</v>
       </c>
       <c r="K11">
-        <v>1.048677691083048</v>
+        <v>1.039169230817161</v>
       </c>
       <c r="L11">
-        <v>1.071539322242764</v>
+        <v>1.022825104714806</v>
       </c>
       <c r="M11">
-        <v>1.080316780984755</v>
+        <v>1.028446285621946</v>
       </c>
       <c r="N11">
-        <v>1.071453802451574</v>
+        <v>1.024407557970895</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063179858349864</v>
+        <v>0.9909425681030101</v>
       </c>
       <c r="D12">
-        <v>1.04496453830931</v>
+        <v>1.023583504967832</v>
       </c>
       <c r="E12">
-        <v>1.067742116573449</v>
+        <v>1.006016446611836</v>
       </c>
       <c r="F12">
-        <v>1.076527478179659</v>
+        <v>1.011630081221115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050753021956911</v>
+        <v>1.046724795727538</v>
       </c>
       <c r="J12">
-        <v>1.069634235538956</v>
+        <v>1.021135263615542</v>
       </c>
       <c r="K12">
-        <v>1.048543255939511</v>
+        <v>1.038272412800586</v>
       </c>
       <c r="L12">
-        <v>1.071238850490606</v>
+        <v>1.021029281657076</v>
       </c>
       <c r="M12">
-        <v>1.079993611803902</v>
+        <v>1.026537808380935</v>
       </c>
       <c r="N12">
-        <v>1.071153238842183</v>
+        <v>1.022585392815727</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063262458438692</v>
+        <v>0.9914506219948951</v>
       </c>
       <c r="D13">
-        <v>1.045003074217847</v>
+        <v>1.023823584876201</v>
       </c>
       <c r="E13">
-        <v>1.067816157828278</v>
+        <v>1.006455237350302</v>
       </c>
       <c r="F13">
-        <v>1.076606311902935</v>
+        <v>1.01209309519136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050777603654084</v>
+        <v>1.046909782784244</v>
       </c>
       <c r="J13">
-        <v>1.069698634070974</v>
+        <v>1.021527303936267</v>
       </c>
       <c r="K13">
-        <v>1.048572105093961</v>
+        <v>1.038465614483276</v>
       </c>
       <c r="L13">
-        <v>1.071303319625362</v>
+        <v>1.021416179330643</v>
       </c>
       <c r="M13">
-        <v>1.08006294811038</v>
+        <v>1.026948952237779</v>
       </c>
       <c r="N13">
-        <v>1.071217728827503</v>
+        <v>1.022977989878676</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063533045857022</v>
+        <v>0.9931067611859502</v>
       </c>
       <c r="D14">
-        <v>1.045129314240536</v>
+        <v>1.024606767116098</v>
       </c>
       <c r="E14">
-        <v>1.06805871115892</v>
+        <v>1.007885925033079</v>
       </c>
       <c r="F14">
-        <v>1.076864573322694</v>
+        <v>1.013602816656623</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050858081277174</v>
+        <v>1.0475125375609</v>
       </c>
       <c r="J14">
-        <v>1.069909571593323</v>
+        <v>1.022805213890541</v>
       </c>
       <c r="K14">
-        <v>1.0486665842005</v>
+        <v>1.039095471900689</v>
       </c>
       <c r="L14">
-        <v>1.071514492772705</v>
+        <v>1.022677416914099</v>
       </c>
       <c r="M14">
-        <v>1.080290074659765</v>
+        <v>1.028289322240934</v>
       </c>
       <c r="N14">
-        <v>1.071428965905329</v>
+        <v>1.024257714611663</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063699719554725</v>
+        <v>0.9941207189809748</v>
       </c>
       <c r="D15">
-        <v>1.045207075220629</v>
+        <v>1.025086697238677</v>
       </c>
       <c r="E15">
-        <v>1.068208119418286</v>
+        <v>1.008762100625761</v>
       </c>
       <c r="F15">
-        <v>1.077023663849785</v>
+        <v>1.014527434690865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050907615632147</v>
+        <v>1.047881367152575</v>
       </c>
       <c r="J15">
-        <v>1.070039484449488</v>
+        <v>1.023587561877745</v>
       </c>
       <c r="K15">
-        <v>1.048724759744294</v>
+        <v>1.039481141407142</v>
       </c>
       <c r="L15">
-        <v>1.071644554085733</v>
+        <v>1.023449626700163</v>
       </c>
       <c r="M15">
-        <v>1.080429969799516</v>
+        <v>1.029110052810152</v>
       </c>
       <c r="N15">
-        <v>1.071559063252651</v>
+        <v>1.025041173622746</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064669165870817</v>
+        <v>0.9999275652324908</v>
       </c>
       <c r="D16">
-        <v>1.04565937906526</v>
+        <v>1.027841450756225</v>
       </c>
       <c r="E16">
-        <v>1.069077183286899</v>
+        <v>1.013783480320522</v>
       </c>
       <c r="F16">
-        <v>1.077949144015974</v>
+        <v>1.019827062218872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051195157101845</v>
+        <v>1.049990452658063</v>
       </c>
       <c r="J16">
-        <v>1.070794834154664</v>
+        <v>1.028067262863937</v>
       </c>
       <c r="K16">
-        <v>1.049062816336106</v>
+        <v>1.041690321777583</v>
       </c>
       <c r="L16">
-        <v>1.072400817842366</v>
+        <v>1.027872290530193</v>
       </c>
       <c r="M16">
-        <v>1.081243538253616</v>
+        <v>1.033811674170245</v>
       </c>
       <c r="N16">
-        <v>1.072315485641048</v>
+        <v>1.029527236298166</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065276694731033</v>
+        <v>1.003490202483649</v>
       </c>
       <c r="D17">
-        <v>1.045942835977822</v>
+        <v>1.029536707335718</v>
       </c>
       <c r="E17">
-        <v>1.069621840120685</v>
+        <v>1.01686721082809</v>
       </c>
       <c r="F17">
-        <v>1.078529243636965</v>
+        <v>1.02308222197544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051374848552201</v>
+        <v>1.051281528976977</v>
       </c>
       <c r="J17">
-        <v>1.071267947175383</v>
+        <v>1.030814914933671</v>
       </c>
       <c r="K17">
-        <v>1.049274387629701</v>
+        <v>1.043045939777324</v>
       </c>
       <c r="L17">
-        <v>1.072874548101954</v>
+        <v>1.030585821868384</v>
       </c>
       <c r="M17">
-        <v>1.081753274025777</v>
+        <v>1.036697288579815</v>
       </c>
       <c r="N17">
-        <v>1.072789270536523</v>
+        <v>1.032278790349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065630850428795</v>
+        <v>1.005540830591965</v>
       </c>
       <c r="D18">
-        <v>1.046108078089541</v>
+        <v>1.030514219869855</v>
       </c>
       <c r="E18">
-        <v>1.069939357345002</v>
+        <v>1.018643202392836</v>
       </c>
       <c r="F18">
-        <v>1.078867453750961</v>
+        <v>1.024957144248693</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051479416946382</v>
+        <v>1.052023574502212</v>
       </c>
       <c r="J18">
-        <v>1.071543656872336</v>
+        <v>1.032396133999208</v>
       </c>
       <c r="K18">
-        <v>1.049397620395986</v>
+        <v>1.043826235346134</v>
       </c>
       <c r="L18">
-        <v>1.073150633585541</v>
+        <v>1.032147706587276</v>
       </c>
       <c r="M18">
-        <v>1.082050382570138</v>
+        <v>1.038358555070704</v>
       </c>
       <c r="N18">
-        <v>1.07306537177287</v>
+        <v>1.033862254926978</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065751573787819</v>
+        <v>1.006235518188651</v>
       </c>
       <c r="D19">
-        <v>1.046164405581133</v>
+        <v>1.030845653707287</v>
       </c>
       <c r="E19">
-        <v>1.070047593593522</v>
+        <v>1.019245019360319</v>
       </c>
       <c r="F19">
-        <v>1.078982749095725</v>
+        <v>1.025592519362617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051515031006208</v>
+        <v>1.052274767050098</v>
       </c>
       <c r="J19">
-        <v>1.071637624721792</v>
+        <v>1.032931744656139</v>
       </c>
       <c r="K19">
-        <v>1.049439610279528</v>
+        <v>1.04409057008262</v>
       </c>
       <c r="L19">
-        <v>1.07324473223715</v>
+        <v>1.032676818389487</v>
       </c>
       <c r="M19">
-        <v>1.082151653225167</v>
+        <v>1.038921390154382</v>
       </c>
       <c r="N19">
-        <v>1.07315947306745</v>
+        <v>1.034398626212478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065211533971393</v>
+        <v>1.003110828902406</v>
       </c>
       <c r="D20">
-        <v>1.045912433421098</v>
+        <v>1.029356002040309</v>
       </c>
       <c r="E20">
-        <v>1.069563421433496</v>
+        <v>1.016538727267778</v>
       </c>
       <c r="F20">
-        <v>1.078467020238214</v>
+        <v>1.022735456709873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051355594473224</v>
+        <v>1.051144158642092</v>
       </c>
       <c r="J20">
-        <v>1.071217212447583</v>
+        <v>1.030522357766239</v>
       </c>
       <c r="K20">
-        <v>1.049251705963175</v>
+        <v>1.04290158164766</v>
       </c>
       <c r="L20">
-        <v>1.072823745518809</v>
+        <v>1.030296866177036</v>
       </c>
       <c r="M20">
-        <v>1.081698606154478</v>
+        <v>1.036389973706898</v>
       </c>
       <c r="N20">
-        <v>1.072738463759591</v>
+        <v>1.031985817716833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063453373819801</v>
+        <v>0.9926204207842825</v>
       </c>
       <c r="D21">
-        <v>1.045092143800655</v>
+        <v>1.02437668722475</v>
       </c>
       <c r="E21">
-        <v>1.067987292940063</v>
+        <v>1.007465738176929</v>
       </c>
       <c r="F21">
-        <v>1.076788528631465</v>
+        <v>1.013159409380817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050834393162084</v>
+        <v>1.047335575064592</v>
       </c>
       <c r="J21">
-        <v>1.069847466745301</v>
+        <v>1.022429952486253</v>
       </c>
       <c r="K21">
-        <v>1.048638769994039</v>
+        <v>1.038910498775137</v>
       </c>
       <c r="L21">
-        <v>1.071452317855293</v>
+        <v>1.022307036958813</v>
       </c>
       <c r="M21">
-        <v>1.080223200945144</v>
+        <v>1.027895689123838</v>
       </c>
       <c r="N21">
-        <v>1.071366772861299</v>
+        <v>1.023881920293138</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062346029327974</v>
+        <v>0.9857468551814692</v>
       </c>
       <c r="D22">
-        <v>1.044575538265452</v>
+        <v>1.021133113236717</v>
       </c>
       <c r="E22">
-        <v>1.066994715678862</v>
+        <v>1.001531824715483</v>
       </c>
       <c r="F22">
-        <v>1.075731766403614</v>
+        <v>1.006898313847445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050504487780306</v>
+        <v>1.044830965027694</v>
       </c>
       <c r="J22">
-        <v>1.068983957694216</v>
+        <v>1.017125635417773</v>
       </c>
       <c r="K22">
-        <v>1.048251816257428</v>
+        <v>1.03629723088239</v>
       </c>
       <c r="L22">
-        <v>1.070587894393779</v>
+        <v>1.017072996814885</v>
       </c>
       <c r="M22">
-        <v>1.079293595459855</v>
+        <v>1.02233434136353</v>
       </c>
       <c r="N22">
-        <v>1.070502037528316</v>
+        <v>1.018570070486007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.062933238799713</v>
+        <v>0.9894186334268346</v>
       </c>
       <c r="D23">
-        <v>1.044849482563921</v>
+        <v>1.022863874179652</v>
       </c>
       <c r="E23">
-        <v>1.067521054219969</v>
+        <v>1.004700557292112</v>
       </c>
       <c r="F23">
-        <v>1.0762921141784</v>
+        <v>1.01024159415419</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050679586886262</v>
+        <v>1.046169698962106</v>
       </c>
       <c r="J23">
-        <v>1.069441940265885</v>
+        <v>1.019959277241584</v>
       </c>
       <c r="K23">
-        <v>1.048457097989308</v>
+        <v>1.037692954958445</v>
       </c>
       <c r="L23">
-        <v>1.071046348092753</v>
+        <v>1.01986879967603</v>
       </c>
       <c r="M23">
-        <v>1.079786585220983</v>
+        <v>1.025304680443903</v>
       </c>
       <c r="N23">
-        <v>1.070960670487767</v>
+        <v>1.021407736406231</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065240977949385</v>
+        <v>1.00328233583675</v>
       </c>
       <c r="D24">
-        <v>1.045926171317043</v>
+        <v>1.029437689795597</v>
       </c>
       <c r="E24">
-        <v>1.069589818855018</v>
+        <v>1.016687224726633</v>
       </c>
       <c r="F24">
-        <v>1.078495136784225</v>
+        <v>1.022892218149517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051364295312437</v>
+        <v>1.051206264317837</v>
       </c>
       <c r="J24">
-        <v>1.071240138057205</v>
+        <v>1.030654617770243</v>
       </c>
       <c r="K24">
-        <v>1.049261955367289</v>
+        <v>1.042966842947522</v>
       </c>
       <c r="L24">
-        <v>1.072846701740646</v>
+        <v>1.030427497081673</v>
       </c>
       <c r="M24">
-        <v>1.081723308866761</v>
+        <v>1.036528903386455</v>
       </c>
       <c r="N24">
-        <v>1.072761421926207</v>
+        <v>1.032118265545213</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067910948978508</v>
+        <v>1.018306444874399</v>
       </c>
       <c r="D25">
-        <v>1.047171947565168</v>
+        <v>1.03662683658226</v>
       </c>
       <c r="E25">
-        <v>1.07198378930629</v>
+        <v>1.029715518533668</v>
       </c>
       <c r="F25">
-        <v>1.081045680788667</v>
+        <v>1.036649839308872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05214935503327</v>
+        <v>1.05662252044128</v>
       </c>
       <c r="J25">
-        <v>1.073317099618352</v>
+        <v>1.042233048990655</v>
       </c>
       <c r="K25">
-        <v>1.05018916174903</v>
+        <v>1.04868198205067</v>
       </c>
       <c r="L25">
-        <v>1.074926782801829</v>
+        <v>1.041869410218627</v>
       </c>
       <c r="M25">
-        <v>1.083962490330762</v>
+        <v>1.048704658902968</v>
       </c>
       <c r="N25">
-        <v>1.074841333011002</v>
+        <v>1.043713139466023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029565587594278</v>
+        <v>1.011967578902283</v>
       </c>
       <c r="D2">
-        <v>1.042054842912577</v>
+        <v>1.039692175047513</v>
       </c>
       <c r="E2">
-        <v>1.039503905855296</v>
+        <v>1.024781566218867</v>
       </c>
       <c r="F2">
-        <v>1.046992505874207</v>
+        <v>1.031701415089664</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060643713471734</v>
+        <v>1.054359135510242</v>
       </c>
       <c r="J2">
-        <v>1.050896577369336</v>
+        <v>1.033796140166811</v>
       </c>
       <c r="K2">
-        <v>1.05295780253729</v>
+        <v>1.050624902360574</v>
       </c>
       <c r="L2">
-        <v>1.050439012471154</v>
+        <v>1.035906121619902</v>
       </c>
       <c r="M2">
-        <v>1.057833795312161</v>
+        <v>1.042736082817947</v>
       </c>
       <c r="N2">
-        <v>1.052388971048722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014646469662518</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042395131015691</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046866429039348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03737586900083</v>
+        <v>1.016679861434817</v>
       </c>
       <c r="D3">
-        <v>1.045838633534671</v>
+        <v>1.041724456910064</v>
       </c>
       <c r="E3">
-        <v>1.046306011339912</v>
+        <v>1.028536859420543</v>
       </c>
       <c r="F3">
-        <v>1.054183532225207</v>
+        <v>1.035260149423013</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063409443048181</v>
+        <v>1.055507120605988</v>
       </c>
       <c r="J3">
-        <v>1.056897011252141</v>
+        <v>1.036725918696138</v>
       </c>
       <c r="K3">
-        <v>1.055916763125835</v>
+        <v>1.051849912229039</v>
       </c>
       <c r="L3">
-        <v>1.056378793695619</v>
+        <v>1.038817175462072</v>
       </c>
       <c r="M3">
-        <v>1.064167067171484</v>
+        <v>1.045460904376345</v>
       </c>
       <c r="N3">
-        <v>1.058397926235901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015672247725273</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044551635739384</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047729960999129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042276436220139</v>
+        <v>1.019663129036114</v>
       </c>
       <c r="D4">
-        <v>1.048219895327981</v>
+        <v>1.043018253357389</v>
       </c>
       <c r="E4">
-        <v>1.050578912402071</v>
+        <v>1.030920608595414</v>
       </c>
       <c r="F4">
-        <v>1.058702502800027</v>
+        <v>1.037522704116376</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065133277326466</v>
+        <v>1.056223483465753</v>
       </c>
       <c r="J4">
-        <v>1.060657224681728</v>
+        <v>1.038576881965872</v>
       </c>
       <c r="K4">
-        <v>1.05776920053292</v>
+        <v>1.05262379438023</v>
       </c>
       <c r="L4">
-        <v>1.060102938692066</v>
+        <v>1.040659639847166</v>
       </c>
       <c r="M4">
-        <v>1.068140531439375</v>
+        <v>1.0471884110238</v>
       </c>
       <c r="N4">
-        <v>1.062163479599861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016320018474737</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045918832520619</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.048278034678145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044302051783834</v>
+        <v>1.020902842611318</v>
       </c>
       <c r="D5">
-        <v>1.049205686641681</v>
+        <v>1.043562856082413</v>
       </c>
       <c r="E5">
-        <v>1.052346176370811</v>
+        <v>1.031913018674316</v>
       </c>
       <c r="F5">
-        <v>1.060571967184275</v>
+        <v>1.038465286888665</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065842967395978</v>
+        <v>1.056520252923614</v>
       </c>
       <c r="J5">
-        <v>1.062210276668506</v>
+        <v>1.039345371813905</v>
       </c>
       <c r="K5">
-        <v>1.05853377143104</v>
+        <v>1.052950327191784</v>
       </c>
       <c r="L5">
-        <v>1.061641546801065</v>
+        <v>1.041425615469064</v>
       </c>
       <c r="M5">
-        <v>1.069782768879452</v>
+        <v>1.047907085474493</v>
       </c>
       <c r="N5">
-        <v>1.063718737098597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016589783167793</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046487610708616</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048516004440705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044640191184631</v>
+        <v>1.021111033263376</v>
       </c>
       <c r="D6">
-        <v>1.04937032999165</v>
+        <v>1.043660862768858</v>
       </c>
       <c r="E6">
-        <v>1.052641250334893</v>
+        <v>1.032080199474834</v>
       </c>
       <c r="F6">
-        <v>1.060884130404893</v>
+        <v>1.0386238536544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065961267589185</v>
+        <v>1.05657191330841</v>
       </c>
       <c r="J6">
-        <v>1.062469457531552</v>
+        <v>1.039474696388418</v>
       </c>
       <c r="K6">
-        <v>1.058661333167983</v>
+        <v>1.053011679305983</v>
       </c>
       <c r="L6">
-        <v>1.061898343522338</v>
+        <v>1.04155482893549</v>
       </c>
       <c r="M6">
-        <v>1.070056898255911</v>
+        <v>1.048028107156736</v>
       </c>
       <c r="N6">
-        <v>1.063978286028197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016636272733031</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04658339046258</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048568029888526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042303635844468</v>
+        <v>1.019682144205392</v>
       </c>
       <c r="D7">
-        <v>1.048233126626377</v>
+        <v>1.043043846999978</v>
       </c>
       <c r="E7">
-        <v>1.050602638723646</v>
+        <v>1.030937018324553</v>
       </c>
       <c r="F7">
-        <v>1.05872759951508</v>
+        <v>1.037537559788631</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06514281828877</v>
+        <v>1.056233264462147</v>
       </c>
       <c r="J7">
-        <v>1.060678083657481</v>
+        <v>1.038589523986595</v>
       </c>
       <c r="K7">
-        <v>1.057779471656735</v>
+        <v>1.052646273011688</v>
       </c>
       <c r="L7">
-        <v>1.06012360189351</v>
+        <v>1.040672984804635</v>
       </c>
       <c r="M7">
-        <v>1.068162583890268</v>
+        <v>1.047200246324871</v>
       </c>
       <c r="N7">
-        <v>1.062184368197752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016327449255624</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045928199298095</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048313812034474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032238151679358</v>
+        <v>1.01357677456664</v>
       </c>
       <c r="D8">
-        <v>1.043347973293415</v>
+        <v>1.040405739386794</v>
       </c>
       <c r="E8">
-        <v>1.041830391846406</v>
+        <v>1.02606419682191</v>
       </c>
       <c r="F8">
-        <v>1.049451643665595</v>
+        <v>1.032915255919183</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061592488753837</v>
+        <v>1.054759431780286</v>
       </c>
       <c r="J8">
-        <v>1.052950803594125</v>
+        <v>1.034798342196864</v>
       </c>
       <c r="K8">
-        <v>1.053971117453418</v>
+        <v>1.051064851599684</v>
       </c>
       <c r="L8">
-        <v>1.052472056507619</v>
+        <v>1.036902317019934</v>
       </c>
       <c r="M8">
-        <v>1.060000970194189</v>
+        <v>1.043667089822772</v>
       </c>
       <c r="N8">
-        <v>1.054446114510374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015001348170314</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043131958333515</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047200151618995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013223283390249</v>
+        <v>1.002283445900155</v>
       </c>
       <c r="D9">
-        <v>1.034187315635343</v>
+        <v>1.035559719361342</v>
       </c>
       <c r="E9">
-        <v>1.025303272240592</v>
+        <v>1.017101589951677</v>
       </c>
       <c r="F9">
-        <v>1.031989598450037</v>
+        <v>1.024443361724011</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054795774374135</v>
+        <v>1.051944673407962</v>
       </c>
       <c r="J9">
-        <v>1.038317581785099</v>
+        <v>1.027755826687644</v>
       </c>
       <c r="K9">
-        <v>1.046749051783771</v>
+        <v>1.048101056754435</v>
       </c>
       <c r="L9">
-        <v>1.037998740298901</v>
+        <v>1.029923168037762</v>
       </c>
       <c r="M9">
-        <v>1.044584144201572</v>
+        <v>1.037151931035849</v>
       </c>
       <c r="N9">
-        <v>1.039792111847925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012530836327005</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037975647338377</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045101463394813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9995211486652542</v>
+        <v>0.9944878905263264</v>
       </c>
       <c r="D10">
-        <v>1.027648306417658</v>
+        <v>1.032245869795879</v>
       </c>
       <c r="E10">
-        <v>1.013431840016554</v>
+        <v>1.011000954506403</v>
       </c>
       <c r="F10">
-        <v>1.019455901018152</v>
+        <v>1.018743500721427</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049843024132003</v>
+        <v>1.049966814818551</v>
       </c>
       <c r="J10">
-        <v>1.027753778160554</v>
+        <v>1.022921924084214</v>
       </c>
       <c r="K10">
-        <v>1.041535683141714</v>
+        <v>1.046056340312562</v>
       </c>
       <c r="L10">
-        <v>1.027562740688867</v>
+        <v>1.025174384034354</v>
       </c>
       <c r="M10">
-        <v>1.033482539360808</v>
+        <v>1.032782385919331</v>
       </c>
       <c r="N10">
-        <v>1.029213306410548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010850560006811</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034569108315813</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043672381127476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9933006861100614</v>
+        <v>0.9920803253008461</v>
       </c>
       <c r="D11">
-        <v>1.024698530998424</v>
+        <v>1.031080386131863</v>
       </c>
       <c r="E11">
-        <v>1.008053483792141</v>
+        <v>1.009508841533652</v>
       </c>
       <c r="F11">
-        <v>1.013779637065777</v>
+        <v>1.017731272644878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047583090274143</v>
+        <v>1.049467659646667</v>
       </c>
       <c r="J11">
-        <v>1.02295484475678</v>
+        <v>1.021786324193663</v>
       </c>
       <c r="K11">
-        <v>1.039169230817161</v>
+        <v>1.045439046227929</v>
       </c>
       <c r="L11">
-        <v>1.022825104714806</v>
+        <v>1.02425363564709</v>
       </c>
       <c r="M11">
-        <v>1.028446285621946</v>
+        <v>1.032326374783046</v>
       </c>
       <c r="N11">
-        <v>1.024407557970895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010589186427254</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034646371481907</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043268419383779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9909425681030101</v>
+        <v>0.9915916907104874</v>
       </c>
       <c r="D12">
-        <v>1.023583504967832</v>
+        <v>1.030738430697564</v>
       </c>
       <c r="E12">
-        <v>1.006016446611836</v>
+        <v>1.009414322458476</v>
       </c>
       <c r="F12">
-        <v>1.011630081221115</v>
+        <v>1.017917278588672</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046724795727538</v>
+        <v>1.049427660512691</v>
       </c>
       <c r="J12">
-        <v>1.021135263615542</v>
+        <v>1.021756218075003</v>
       </c>
       <c r="K12">
-        <v>1.038272412800586</v>
+        <v>1.045299510130806</v>
       </c>
       <c r="L12">
-        <v>1.021029281657076</v>
+        <v>1.024363354486269</v>
       </c>
       <c r="M12">
-        <v>1.026537808380935</v>
+        <v>1.032709078189582</v>
       </c>
       <c r="N12">
-        <v>1.022585392815727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01068257737888</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035276664866653</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.04316976487483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9914506219948951</v>
+        <v>0.9925497935198806</v>
       </c>
       <c r="D13">
-        <v>1.023823584876201</v>
+        <v>1.031026499556791</v>
       </c>
       <c r="E13">
-        <v>1.006455237350302</v>
+        <v>1.010393018853384</v>
       </c>
       <c r="F13">
-        <v>1.01209309519136</v>
+        <v>1.019051868633808</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046909782784244</v>
+        <v>1.049747738402036</v>
       </c>
       <c r="J13">
-        <v>1.021527303936267</v>
+        <v>1.022579052879355</v>
       </c>
       <c r="K13">
-        <v>1.038465614483276</v>
+        <v>1.045540358027583</v>
       </c>
       <c r="L13">
-        <v>1.021416179330643</v>
+        <v>1.025280402807056</v>
       </c>
       <c r="M13">
-        <v>1.026948952237779</v>
+        <v>1.033780105956819</v>
       </c>
       <c r="N13">
-        <v>1.022977989878676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011060260470792</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036400943004964</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043337583479619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9931067611859502</v>
+        <v>0.9938665673008167</v>
       </c>
       <c r="D14">
-        <v>1.024606767116098</v>
+        <v>1.031514983343227</v>
       </c>
       <c r="E14">
-        <v>1.007885925033079</v>
+        <v>1.01155453889346</v>
       </c>
       <c r="F14">
-        <v>1.013602816656623</v>
+        <v>1.020266855869752</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0475125375609</v>
+        <v>1.050132315104204</v>
       </c>
       <c r="J14">
-        <v>1.022805213890541</v>
+        <v>1.023532771438868</v>
       </c>
       <c r="K14">
-        <v>1.039095471900689</v>
+        <v>1.045882301846428</v>
       </c>
       <c r="L14">
-        <v>1.022677416914099</v>
+        <v>1.026278481859232</v>
       </c>
       <c r="M14">
-        <v>1.028289322240934</v>
+        <v>1.034832910565513</v>
       </c>
       <c r="N14">
-        <v>1.024257714611663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011450189854955</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037406832245637</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043580752858689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9941207189809748</v>
+        <v>0.994507843503069</v>
       </c>
       <c r="D15">
-        <v>1.025086697238677</v>
+        <v>1.031777566192427</v>
       </c>
       <c r="E15">
-        <v>1.008762100625761</v>
+        <v>1.01208186240574</v>
       </c>
       <c r="F15">
-        <v>1.014527434690865</v>
+        <v>1.020787671603713</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047881367152575</v>
+        <v>1.050308036592146</v>
       </c>
       <c r="J15">
-        <v>1.023587561877745</v>
+        <v>1.023958417228005</v>
       </c>
       <c r="K15">
-        <v>1.039481141407142</v>
+        <v>1.046055352940352</v>
       </c>
       <c r="L15">
-        <v>1.023449626700163</v>
+        <v>1.026708791066801</v>
       </c>
       <c r="M15">
-        <v>1.029110052810152</v>
+        <v>1.035258117886642</v>
       </c>
       <c r="N15">
-        <v>1.025041173622746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01161107259809</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037780511899266</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04370890925895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9999275652324908</v>
+        <v>0.9976201756974594</v>
       </c>
       <c r="D16">
-        <v>1.027841450756225</v>
+        <v>1.033125105580533</v>
       </c>
       <c r="E16">
-        <v>1.013783480320522</v>
+        <v>1.01447474059634</v>
       </c>
       <c r="F16">
-        <v>1.019827062218872</v>
+        <v>1.023010774765725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049990452658063</v>
+        <v>1.05109657469682</v>
       </c>
       <c r="J16">
-        <v>1.028067262863937</v>
+        <v>1.025851444871954</v>
       </c>
       <c r="K16">
-        <v>1.041690321777583</v>
+        <v>1.046885969208531</v>
       </c>
       <c r="L16">
-        <v>1.027872290530193</v>
+        <v>1.028551551317793</v>
       </c>
       <c r="M16">
-        <v>1.033811674170245</v>
+        <v>1.036941135000406</v>
       </c>
       <c r="N16">
-        <v>1.029527236298166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012251013075504</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039071996429222</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044299306254364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003490202483649</v>
+        <v>0.9993195787913869</v>
       </c>
       <c r="D17">
-        <v>1.029536707335718</v>
+        <v>1.03390623683467</v>
       </c>
       <c r="E17">
-        <v>1.01686721082809</v>
+        <v>1.015704048846598</v>
       </c>
       <c r="F17">
-        <v>1.02308222197544</v>
+        <v>1.02407604638763</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051281528976977</v>
+        <v>1.051498221632505</v>
       </c>
       <c r="J17">
-        <v>1.030814914933671</v>
+        <v>1.026803929717432</v>
       </c>
       <c r="K17">
-        <v>1.043045939777324</v>
+        <v>1.047344784504805</v>
       </c>
       <c r="L17">
-        <v>1.030585821868384</v>
+        <v>1.029442220155216</v>
       </c>
       <c r="M17">
-        <v>1.036697288579815</v>
+        <v>1.037674705463036</v>
       </c>
       <c r="N17">
-        <v>1.032278790349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012537854500923</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039522644802025</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044626260127663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005540830591965</v>
+        <v>0.9999417772845977</v>
       </c>
       <c r="D18">
-        <v>1.030514219869855</v>
+        <v>1.034256443813619</v>
       </c>
       <c r="E18">
-        <v>1.018643202392836</v>
+        <v>1.016006256066821</v>
       </c>
       <c r="F18">
-        <v>1.024957144248693</v>
+        <v>1.024180300222461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052023574502212</v>
+        <v>1.051594161750348</v>
       </c>
       <c r="J18">
-        <v>1.032396133999208</v>
+        <v>1.027006984384128</v>
       </c>
       <c r="K18">
-        <v>1.043826235346134</v>
+        <v>1.04750895220642</v>
       </c>
       <c r="L18">
-        <v>1.032147706587276</v>
+        <v>1.029554304320019</v>
       </c>
       <c r="M18">
-        <v>1.038358555070704</v>
+        <v>1.037594307200763</v>
       </c>
       <c r="N18">
-        <v>1.033862254926978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012532146479308</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039221076507795</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04473082266334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006235518188651</v>
+        <v>0.9995870497131186</v>
       </c>
       <c r="D19">
-        <v>1.030845653707287</v>
+        <v>1.034238338188684</v>
       </c>
       <c r="E19">
-        <v>1.019245019360319</v>
+        <v>1.01546382737323</v>
       </c>
       <c r="F19">
-        <v>1.025592519362617</v>
+        <v>1.023402333151669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052274767050098</v>
+        <v>1.051421411261008</v>
       </c>
       <c r="J19">
-        <v>1.032931744656139</v>
+        <v>1.026530948363976</v>
       </c>
       <c r="K19">
-        <v>1.04409057008262</v>
+        <v>1.047429613554847</v>
       </c>
       <c r="L19">
-        <v>1.032676818389487</v>
+        <v>1.028957727419051</v>
       </c>
       <c r="M19">
-        <v>1.038921390154382</v>
+        <v>1.036766533818462</v>
       </c>
       <c r="N19">
-        <v>1.034398626212478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012270614458426</v>
+      </c>
+      <c r="O19">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P19">
+        <v>1.038240431434971</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044681052607203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003110828902406</v>
+        <v>0.9965212808471826</v>
       </c>
       <c r="D20">
-        <v>1.029356002040309</v>
+        <v>1.033147089731873</v>
       </c>
       <c r="E20">
-        <v>1.016538727267778</v>
+        <v>1.01259514153058</v>
       </c>
       <c r="F20">
-        <v>1.022735456709873</v>
+        <v>1.020232335166197</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051144158642092</v>
+        <v>1.050497394490211</v>
       </c>
       <c r="J20">
-        <v>1.030522357766239</v>
+        <v>1.024186963053523</v>
       </c>
       <c r="K20">
-        <v>1.04290158164766</v>
+        <v>1.046631096107864</v>
       </c>
       <c r="L20">
-        <v>1.030296866177036</v>
+        <v>1.026420077952536</v>
       </c>
       <c r="M20">
-        <v>1.036389973706898</v>
+        <v>1.033928514193314</v>
       </c>
       <c r="N20">
-        <v>1.031985817716833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011299980268149</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035465553646931</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044120355657973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9926204207842825</v>
+        <v>0.9904389020857455</v>
       </c>
       <c r="D21">
-        <v>1.02437668722475</v>
+        <v>1.030600048210071</v>
       </c>
       <c r="E21">
-        <v>1.007465738176929</v>
+        <v>1.007776114755193</v>
       </c>
       <c r="F21">
-        <v>1.013159409380817</v>
+        <v>1.015662287681921</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047335575064592</v>
+        <v>1.048911879359698</v>
       </c>
       <c r="J21">
-        <v>1.022429952486253</v>
+        <v>1.020341880183974</v>
       </c>
       <c r="K21">
-        <v>1.038910498775137</v>
+        <v>1.045023992907317</v>
       </c>
       <c r="L21">
-        <v>1.022307036958813</v>
+        <v>1.022611648795762</v>
       </c>
       <c r="M21">
-        <v>1.027895689123838</v>
+        <v>1.03035288692605</v>
       </c>
       <c r="N21">
-        <v>1.023881920293138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009937899700455</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032594620450682</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042987283442718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9857468551814692</v>
+        <v>0.9865813417076031</v>
       </c>
       <c r="D22">
-        <v>1.021133113236717</v>
+        <v>1.02897041749904</v>
       </c>
       <c r="E22">
-        <v>1.001531824715483</v>
+        <v>1.004751048423325</v>
       </c>
       <c r="F22">
-        <v>1.006898313847445</v>
+        <v>1.012822390703988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044830965027694</v>
+        <v>1.047899891918685</v>
       </c>
       <c r="J22">
-        <v>1.017125635417773</v>
+        <v>1.01792200408659</v>
       </c>
       <c r="K22">
-        <v>1.03629723088239</v>
+        <v>1.043989012074543</v>
       </c>
       <c r="L22">
-        <v>1.017072996814885</v>
+        <v>1.020228970034107</v>
       </c>
       <c r="M22">
-        <v>1.02233434136353</v>
+        <v>1.02814404245669</v>
       </c>
       <c r="N22">
-        <v>1.018570070486007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009084178114721</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03084644651221</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042242160349721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9894186334268346</v>
+        <v>0.9886347165137968</v>
       </c>
       <c r="D23">
-        <v>1.022863874179652</v>
+        <v>1.029822115038516</v>
       </c>
       <c r="E23">
-        <v>1.004700557292112</v>
+        <v>1.006358915297177</v>
       </c>
       <c r="F23">
-        <v>1.01024159415419</v>
+        <v>1.014332062785315</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046169698962106</v>
+        <v>1.048435941305098</v>
       </c>
       <c r="J23">
-        <v>1.019959277241584</v>
+        <v>1.019209974026619</v>
       </c>
       <c r="K23">
-        <v>1.037692954958445</v>
+        <v>1.044525382365807</v>
       </c>
       <c r="L23">
-        <v>1.01986879967603</v>
+        <v>1.02149552705722</v>
       </c>
       <c r="M23">
-        <v>1.025304680443903</v>
+        <v>1.029318483212443</v>
       </c>
       <c r="N23">
-        <v>1.021407736406231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009535151855545</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031775949677308</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042611859167725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00328233583675</v>
+        <v>0.9965161993066626</v>
       </c>
       <c r="D24">
-        <v>1.029437689795597</v>
+        <v>1.033137153472695</v>
       </c>
       <c r="E24">
-        <v>1.016687224726633</v>
+        <v>1.012552190437253</v>
       </c>
       <c r="F24">
-        <v>1.022892218149517</v>
+        <v>1.020155148666251</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051206264317837</v>
+        <v>1.050479071113663</v>
       </c>
       <c r="J24">
-        <v>1.030654617770243</v>
+        <v>1.024149017967824</v>
       </c>
       <c r="K24">
-        <v>1.042966842947522</v>
+        <v>1.046606303663756</v>
       </c>
       <c r="L24">
-        <v>1.030427497081673</v>
+        <v>1.026362403838414</v>
       </c>
       <c r="M24">
-        <v>1.036528903386455</v>
+        <v>1.033837326854321</v>
       </c>
       <c r="N24">
-        <v>1.032118265545213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011269863687081</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035352346303555</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044075721382558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018306444874399</v>
+        <v>1.005272784341293</v>
       </c>
       <c r="D25">
-        <v>1.03662683658226</v>
+        <v>1.036860910813443</v>
       </c>
       <c r="E25">
-        <v>1.029715518533668</v>
+        <v>1.019469672480397</v>
       </c>
       <c r="F25">
-        <v>1.036649839308872</v>
+        <v>1.0266772414844</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05662252044128</v>
+        <v>1.052705895107742</v>
       </c>
       <c r="J25">
-        <v>1.042233048990655</v>
+        <v>1.029623991985292</v>
       </c>
       <c r="K25">
-        <v>1.04868198205067</v>
+        <v>1.048912741060643</v>
       </c>
       <c r="L25">
-        <v>1.041869410218627</v>
+        <v>1.031773082305854</v>
       </c>
       <c r="M25">
-        <v>1.048704658902968</v>
+        <v>1.038875076229173</v>
       </c>
       <c r="N25">
-        <v>1.043713139466023</v>
+        <v>1.013191688815799</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039339404723601</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045703627773179</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011967578902283</v>
+        <v>1.01165347605326</v>
       </c>
       <c r="D2">
-        <v>1.039692175047513</v>
+        <v>1.036324894546412</v>
       </c>
       <c r="E2">
-        <v>1.024781566218867</v>
+        <v>1.024534565120231</v>
       </c>
       <c r="F2">
-        <v>1.031701415089664</v>
+        <v>1.031500781605783</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054359135510242</v>
+        <v>1.052991767012556</v>
       </c>
       <c r="J2">
-        <v>1.033796140166811</v>
+        <v>1.033491133996311</v>
       </c>
       <c r="K2">
-        <v>1.050624902360574</v>
+        <v>1.047300339824973</v>
       </c>
       <c r="L2">
-        <v>1.035906121619902</v>
+        <v>1.035662357148641</v>
       </c>
       <c r="M2">
-        <v>1.042736082817947</v>
+        <v>1.042538034293651</v>
       </c>
       <c r="N2">
-        <v>1.014646469662518</v>
+        <v>1.015667814259331</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042395131015691</v>
+        <v>1.042238389281239</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046866429039348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044524406626133</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024624525954088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016679861434817</v>
+        <v>1.016233662265937</v>
       </c>
       <c r="D3">
-        <v>1.041724456910064</v>
+        <v>1.038148708396419</v>
       </c>
       <c r="E3">
-        <v>1.028536859420543</v>
+        <v>1.028181205305029</v>
       </c>
       <c r="F3">
-        <v>1.035260149423013</v>
+        <v>1.034972515986583</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055507120605988</v>
+        <v>1.054029459641384</v>
       </c>
       <c r="J3">
-        <v>1.036725918696138</v>
+        <v>1.036291355725283</v>
       </c>
       <c r="K3">
-        <v>1.051849912229039</v>
+        <v>1.048315672585003</v>
       </c>
       <c r="L3">
-        <v>1.038817175462072</v>
+        <v>1.038465765961434</v>
       </c>
       <c r="M3">
-        <v>1.045460904376345</v>
+        <v>1.045176648495956</v>
       </c>
       <c r="N3">
-        <v>1.015672247725273</v>
+        <v>1.016446836089926</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044551635739384</v>
+        <v>1.044326667489536</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047729960999129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045239407443431</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024795088837065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019663129036114</v>
+        <v>1.019134207473747</v>
       </c>
       <c r="D4">
-        <v>1.043018253357389</v>
+        <v>1.039310806614415</v>
       </c>
       <c r="E4">
-        <v>1.030920608595414</v>
+        <v>1.030496878030965</v>
       </c>
       <c r="F4">
-        <v>1.037522704116376</v>
+        <v>1.037180596470347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056223483465753</v>
+        <v>1.054676008777127</v>
       </c>
       <c r="J4">
-        <v>1.038576881965872</v>
+        <v>1.03806080710495</v>
       </c>
       <c r="K4">
-        <v>1.05262379438023</v>
+        <v>1.048956851404201</v>
       </c>
       <c r="L4">
-        <v>1.040659639847166</v>
+        <v>1.040240654826958</v>
       </c>
       <c r="M4">
-        <v>1.0471884110238</v>
+        <v>1.046850074715766</v>
       </c>
       <c r="N4">
-        <v>1.016320018474737</v>
+        <v>1.016938948819177</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045918832520619</v>
+        <v>1.04565106396215</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048278034678145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045693737795016</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024900195992686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020902842611318</v>
+        <v>1.020339669902517</v>
       </c>
       <c r="D5">
-        <v>1.043562856082413</v>
+        <v>1.039800468080793</v>
       </c>
       <c r="E5">
-        <v>1.031913018674316</v>
+        <v>1.031461043619953</v>
       </c>
       <c r="F5">
-        <v>1.038465286888665</v>
+        <v>1.038100597831143</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056520252923614</v>
+        <v>1.054943713306826</v>
       </c>
       <c r="J5">
-        <v>1.039345371813905</v>
+        <v>1.038795463566617</v>
       </c>
       <c r="K5">
-        <v>1.052950327191784</v>
+        <v>1.049227973883196</v>
       </c>
       <c r="L5">
-        <v>1.041425615469064</v>
+        <v>1.040978564769963</v>
       </c>
       <c r="M5">
-        <v>1.047907085474493</v>
+        <v>1.04754630815502</v>
       </c>
       <c r="N5">
-        <v>1.016589783167793</v>
+        <v>1.017143833646943</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046487610708616</v>
+        <v>1.046202081940549</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048516004440705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045893252573366</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024944760405322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021111033263376</v>
+        <v>1.020542030975867</v>
       </c>
       <c r="D6">
-        <v>1.043660862768858</v>
+        <v>1.039888912163649</v>
       </c>
       <c r="E6">
-        <v>1.032080199474834</v>
+        <v>1.031623353048648</v>
       </c>
       <c r="F6">
-        <v>1.0386238536544</v>
+        <v>1.038255284946039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05657191330841</v>
+        <v>1.054990430051417</v>
       </c>
       <c r="J6">
-        <v>1.039474696388418</v>
+        <v>1.038919026140652</v>
       </c>
       <c r="K6">
-        <v>1.053011679305983</v>
+        <v>1.049279685240141</v>
       </c>
       <c r="L6">
-        <v>1.04155482893549</v>
+        <v>1.04110293671653</v>
       </c>
       <c r="M6">
-        <v>1.048028107156736</v>
+        <v>1.047663473472894</v>
       </c>
       <c r="N6">
-        <v>1.016636272733031</v>
+        <v>1.01717903088769</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04658339046258</v>
+        <v>1.0462948097021</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048568029888526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045939344355334</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024954130815889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019682144205392</v>
+        <v>1.019165737132078</v>
       </c>
       <c r="D7">
-        <v>1.043043846999978</v>
+        <v>1.039337770370005</v>
       </c>
       <c r="E7">
-        <v>1.030937018324553</v>
+        <v>1.030524054860604</v>
       </c>
       <c r="F7">
-        <v>1.037537559788631</v>
+        <v>1.037203968404038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056233264462147</v>
+        <v>1.05469011905398</v>
       </c>
       <c r="J7">
-        <v>1.038589523986595</v>
+        <v>1.038085654254436</v>
       </c>
       <c r="K7">
-        <v>1.052646273011688</v>
+        <v>1.048980669211513</v>
       </c>
       <c r="L7">
-        <v>1.040672984804635</v>
+        <v>1.040264644516935</v>
       </c>
       <c r="M7">
-        <v>1.047200246324871</v>
+        <v>1.046870331006149</v>
       </c>
       <c r="N7">
-        <v>1.016327449255624</v>
+        <v>1.01697484114296</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045928199298095</v>
+        <v>1.045667095344169</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048313812034474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045732492502381</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024907026408207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01357677456664</v>
+        <v>1.013258258154891</v>
       </c>
       <c r="D8">
-        <v>1.040405739386794</v>
+        <v>1.03697581189506</v>
       </c>
       <c r="E8">
-        <v>1.02606419682191</v>
+        <v>1.025815514655484</v>
       </c>
       <c r="F8">
-        <v>1.032915255919183</v>
+        <v>1.032712839844179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054759431780286</v>
+        <v>1.053369618548472</v>
       </c>
       <c r="J8">
-        <v>1.034798342196864</v>
+        <v>1.034488734355024</v>
       </c>
       <c r="K8">
-        <v>1.051064851599684</v>
+        <v>1.047677174823724</v>
       </c>
       <c r="L8">
-        <v>1.036902317019934</v>
+        <v>1.036656793971527</v>
       </c>
       <c r="M8">
-        <v>1.043667089822772</v>
+        <v>1.043467202637112</v>
       </c>
       <c r="N8">
-        <v>1.015001348170314</v>
+        <v>1.01603031184874</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043131958333515</v>
+        <v>1.042973761585803</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047200151618995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04481580584619</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024692712531513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002283445900155</v>
+        <v>1.002294728250241</v>
       </c>
       <c r="D9">
-        <v>1.035559719361342</v>
+        <v>1.032633861819221</v>
       </c>
       <c r="E9">
-        <v>1.017101589951677</v>
+        <v>1.017124639957109</v>
       </c>
       <c r="F9">
-        <v>1.024443361724011</v>
+        <v>1.024458603896416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051944673407962</v>
+        <v>1.050822345669093</v>
       </c>
       <c r="J9">
-        <v>1.027755826687644</v>
+        <v>1.027766713169643</v>
       </c>
       <c r="K9">
-        <v>1.048101056754435</v>
+        <v>1.04521877099022</v>
       </c>
       <c r="L9">
-        <v>1.029923168037762</v>
+        <v>1.029945859982205</v>
       </c>
       <c r="M9">
-        <v>1.037151931035849</v>
+        <v>1.037166940740455</v>
       </c>
       <c r="N9">
-        <v>1.012530836327005</v>
+        <v>1.014167935933921</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037975647338377</v>
+        <v>1.037987526554897</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045101463394813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043074157447872</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024262457498292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9944878905263264</v>
+        <v>0.9947936022411056</v>
       </c>
       <c r="D10">
-        <v>1.032245869795879</v>
+        <v>1.02968409067827</v>
       </c>
       <c r="E10">
-        <v>1.011000954506403</v>
+        <v>1.011269011521727</v>
       </c>
       <c r="F10">
-        <v>1.018743500721427</v>
+        <v>1.018954596451573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049966814818551</v>
+        <v>1.04905350156345</v>
       </c>
       <c r="J10">
-        <v>1.022921924084214</v>
+        <v>1.023215320404621</v>
       </c>
       <c r="K10">
-        <v>1.046056340312562</v>
+        <v>1.043537304421762</v>
       </c>
       <c r="L10">
-        <v>1.025174384034354</v>
+        <v>1.025437738339245</v>
       </c>
       <c r="M10">
-        <v>1.032782385919331</v>
+        <v>1.032989850400028</v>
       </c>
       <c r="N10">
-        <v>1.010850560006811</v>
+        <v>1.013035566781947</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034569108315813</v>
+        <v>1.034733293557204</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043672381127476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041903600837532</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023960678533935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9920803253008461</v>
+        <v>0.9925706638170401</v>
       </c>
       <c r="D11">
-        <v>1.031080386131863</v>
+        <v>1.028655081690678</v>
       </c>
       <c r="E11">
-        <v>1.009508841533652</v>
+        <v>1.009929090229136</v>
       </c>
       <c r="F11">
-        <v>1.017731272644878</v>
+        <v>1.018064028721983</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049467659646667</v>
+        <v>1.048663558817326</v>
       </c>
       <c r="J11">
-        <v>1.021786324193663</v>
+        <v>1.022255811568158</v>
       </c>
       <c r="K11">
-        <v>1.045439046227929</v>
+        <v>1.043056108199619</v>
       </c>
       <c r="L11">
-        <v>1.02425363564709</v>
+        <v>1.024666156582239</v>
       </c>
       <c r="M11">
-        <v>1.032326374783046</v>
+        <v>1.032653139088787</v>
       </c>
       <c r="N11">
-        <v>1.010589186427254</v>
+        <v>1.013107490834786</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034646371481907</v>
+        <v>1.034904838199671</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043268419383779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041599115119829</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023900755328185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9915916907104874</v>
+        <v>0.9921438690390635</v>
       </c>
       <c r="D12">
-        <v>1.030738430697564</v>
+        <v>1.02834769945581</v>
       </c>
       <c r="E12">
-        <v>1.009414322458476</v>
+        <v>1.009882691541311</v>
       </c>
       <c r="F12">
-        <v>1.017917278588672</v>
+        <v>1.018288970090638</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049427660512691</v>
+        <v>1.04866020641728</v>
       </c>
       <c r="J12">
-        <v>1.021756218075003</v>
+        <v>1.022284476493682</v>
       </c>
       <c r="K12">
-        <v>1.045299510130806</v>
+        <v>1.042951234332066</v>
       </c>
       <c r="L12">
-        <v>1.024363354486269</v>
+        <v>1.024822972792523</v>
       </c>
       <c r="M12">
-        <v>1.032709078189582</v>
+        <v>1.033073974539596</v>
       </c>
       <c r="N12">
-        <v>1.01068257737888</v>
+        <v>1.013295870473178</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035276664866653</v>
+        <v>1.035565195181582</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04316976487483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041524968648027</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023897614027022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9925497935198806</v>
+        <v>0.9930528349193785</v>
       </c>
       <c r="D13">
-        <v>1.031026499556791</v>
+        <v>1.028589494249926</v>
       </c>
       <c r="E13">
-        <v>1.010393018853384</v>
+        <v>1.010815401139999</v>
       </c>
       <c r="F13">
-        <v>1.019051868633808</v>
+        <v>1.019387856025546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049747738402036</v>
+        <v>1.048956037530072</v>
       </c>
       <c r="J13">
-        <v>1.022579052879355</v>
+        <v>1.023060441055104</v>
       </c>
       <c r="K13">
-        <v>1.045540358027583</v>
+        <v>1.043146456931655</v>
       </c>
       <c r="L13">
-        <v>1.025280402807056</v>
+        <v>1.025694939351702</v>
       </c>
       <c r="M13">
-        <v>1.033780105956819</v>
+        <v>1.034109988905099</v>
       </c>
       <c r="N13">
-        <v>1.011060260470792</v>
+        <v>1.013549995076275</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036400943004964</v>
+        <v>1.036661721739404</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043337583479619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041660281752564</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023945154519993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9938665673008167</v>
+        <v>0.9942869429745861</v>
       </c>
       <c r="D14">
-        <v>1.031514983343227</v>
+        <v>1.029010077368687</v>
       </c>
       <c r="E14">
-        <v>1.01155453889346</v>
+        <v>1.01190449657515</v>
       </c>
       <c r="F14">
-        <v>1.020266855869752</v>
+        <v>1.020545833072086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050132315104204</v>
+        <v>1.049297109463425</v>
       </c>
       <c r="J14">
-        <v>1.023532771438868</v>
+        <v>1.023935335215955</v>
       </c>
       <c r="K14">
-        <v>1.045882301846428</v>
+        <v>1.043421166271583</v>
       </c>
       <c r="L14">
-        <v>1.026278481859232</v>
+        <v>1.026622029213003</v>
       </c>
       <c r="M14">
-        <v>1.034832910565513</v>
+        <v>1.035106889879927</v>
       </c>
       <c r="N14">
-        <v>1.011450189854955</v>
+        <v>1.01375767612305</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037406832245637</v>
+        <v>1.037623388838548</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043580752858689</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041856052183998</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02400207216202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.994507843503069</v>
+        <v>0.9948853618793119</v>
       </c>
       <c r="D15">
-        <v>1.031777566192427</v>
+        <v>1.029238662089871</v>
       </c>
       <c r="E15">
-        <v>1.01208186240574</v>
+        <v>1.012395197853985</v>
       </c>
       <c r="F15">
-        <v>1.020787671603713</v>
+        <v>1.021037653416046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050308036592146</v>
+        <v>1.049449634733459</v>
       </c>
       <c r="J15">
-        <v>1.023958417228005</v>
+        <v>1.024320087494773</v>
       </c>
       <c r="K15">
-        <v>1.046055352940352</v>
+        <v>1.043560484261254</v>
       </c>
       <c r="L15">
-        <v>1.026708791066801</v>
+        <v>1.027016433734907</v>
       </c>
       <c r="M15">
-        <v>1.035258117886642</v>
+        <v>1.035503657549185</v>
       </c>
       <c r="N15">
-        <v>1.01161107259809</v>
+        <v>1.013829306664618</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037780511899266</v>
+        <v>1.037974584354738</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04370890925895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041960935112548</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024029253532583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976201756974594</v>
+        <v>0.9977914688058886</v>
       </c>
       <c r="D16">
-        <v>1.033125105580533</v>
+        <v>1.030421602782522</v>
       </c>
       <c r="E16">
-        <v>1.01447474059634</v>
+        <v>1.014615946404442</v>
       </c>
       <c r="F16">
-        <v>1.023010774765725</v>
+        <v>1.023123649371247</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05109657469682</v>
+        <v>1.050121009837853</v>
       </c>
       <c r="J16">
-        <v>1.025851444871954</v>
+        <v>1.026015919392695</v>
       </c>
       <c r="K16">
-        <v>1.046885969208531</v>
+        <v>1.044227352162199</v>
       </c>
       <c r="L16">
-        <v>1.028551551317793</v>
+        <v>1.028690308556943</v>
       </c>
       <c r="M16">
-        <v>1.036941135000406</v>
+        <v>1.037052094178055</v>
       </c>
       <c r="N16">
-        <v>1.012251013075504</v>
+        <v>1.014068881199996</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039071996429222</v>
+        <v>1.039159700172223</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044299306254364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042435865100153</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024150294952636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9993195787913869</v>
+        <v>0.9993910323150135</v>
       </c>
       <c r="D17">
-        <v>1.03390623683467</v>
+        <v>1.031114462256827</v>
       </c>
       <c r="E17">
-        <v>1.015704048846598</v>
+        <v>1.015763321275862</v>
       </c>
       <c r="F17">
-        <v>1.02407604638763</v>
+        <v>1.024123349055802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051498221632505</v>
+        <v>1.050460730608453</v>
       </c>
       <c r="J17">
-        <v>1.026803929717432</v>
+        <v>1.026872632383788</v>
       </c>
       <c r="K17">
-        <v>1.047344784504805</v>
+        <v>1.044598083027813</v>
       </c>
       <c r="L17">
-        <v>1.029442220155216</v>
+        <v>1.029500494434929</v>
       </c>
       <c r="M17">
-        <v>1.037674705463036</v>
+        <v>1.03772122820996</v>
       </c>
       <c r="N17">
-        <v>1.012537854500923</v>
+        <v>1.014175300394229</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039522644802025</v>
+        <v>1.039559420733633</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044626260127663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042700793980969</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024213137647176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9999417772845977</v>
+        <v>0.9999765855692306</v>
       </c>
       <c r="D18">
-        <v>1.034256443813619</v>
+        <v>1.031431039890398</v>
       </c>
       <c r="E18">
-        <v>1.016006256066821</v>
+        <v>1.016037284518293</v>
       </c>
       <c r="F18">
-        <v>1.024180300222461</v>
+        <v>1.024204577509308</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051594161750348</v>
+        <v>1.050529543706157</v>
       </c>
       <c r="J18">
-        <v>1.027006984384128</v>
+        <v>1.027040477502413</v>
       </c>
       <c r="K18">
-        <v>1.04750895220642</v>
+        <v>1.044728425345177</v>
       </c>
       <c r="L18">
-        <v>1.029554304320019</v>
+        <v>1.029584818705079</v>
       </c>
       <c r="M18">
-        <v>1.037594307200763</v>
+        <v>1.037618190471494</v>
       </c>
       <c r="N18">
-        <v>1.012532146479308</v>
+        <v>1.014123431176311</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039221076507795</v>
+        <v>1.039239960024083</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04473082266334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042780292170074</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024225824489293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9995870497131186</v>
+        <v>0.9996338389653197</v>
       </c>
       <c r="D19">
-        <v>1.034238338188684</v>
+        <v>1.031425755879144</v>
       </c>
       <c r="E19">
-        <v>1.01546382737323</v>
+        <v>1.015507688286855</v>
       </c>
       <c r="F19">
-        <v>1.023402333151669</v>
+        <v>1.023436205624001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051421411261008</v>
+        <v>1.050358396860007</v>
       </c>
       <c r="J19">
-        <v>1.026530948363976</v>
+        <v>1.02657597838259</v>
       </c>
       <c r="K19">
-        <v>1.047429613554847</v>
+        <v>1.044661468349511</v>
       </c>
       <c r="L19">
-        <v>1.028957727419051</v>
+        <v>1.029000864564753</v>
       </c>
       <c r="M19">
-        <v>1.036766533818462</v>
+        <v>1.036799858416369</v>
       </c>
       <c r="N19">
-        <v>1.012270614458426</v>
+        <v>1.013913161638758</v>
       </c>
       <c r="O19">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038240431434971</v>
+        <v>1.03826678845835</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044681052607203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04273990818218</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024198164209897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9965212808471826</v>
+        <v>0.9967105185416369</v>
       </c>
       <c r="D20">
-        <v>1.033147089731873</v>
+        <v>1.030478563077035</v>
       </c>
       <c r="E20">
-        <v>1.01259514153058</v>
+        <v>1.012763692135036</v>
       </c>
       <c r="F20">
-        <v>1.020232335166197</v>
+        <v>1.020364480176483</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050497394490211</v>
+        <v>1.049514575311316</v>
       </c>
       <c r="J20">
-        <v>1.024186963053523</v>
+        <v>1.024368835757901</v>
       </c>
       <c r="K20">
-        <v>1.046631096107864</v>
+        <v>1.0440058498732</v>
       </c>
       <c r="L20">
-        <v>1.026420077952536</v>
+        <v>1.026585759860523</v>
       </c>
       <c r="M20">
-        <v>1.033928514193314</v>
+        <v>1.034058453193481</v>
       </c>
       <c r="N20">
-        <v>1.011299980268149</v>
+        <v>1.013256025113093</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035465553646931</v>
+        <v>1.035568387233091</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044120355657973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042280634747053</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024049578782738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9904389020857455</v>
+        <v>0.9910510303714807</v>
       </c>
       <c r="D21">
-        <v>1.030600048210071</v>
+        <v>1.02826155257563</v>
       </c>
       <c r="E21">
-        <v>1.007776114755193</v>
+        <v>1.008308196442469</v>
       </c>
       <c r="F21">
-        <v>1.015662287681921</v>
+        <v>1.016082438937236</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048911879359698</v>
+        <v>1.048163545864919</v>
       </c>
       <c r="J21">
-        <v>1.020341880183974</v>
+        <v>1.020927728425144</v>
       </c>
       <c r="K21">
-        <v>1.045023992907317</v>
+        <v>1.042726578729568</v>
       </c>
       <c r="L21">
-        <v>1.022611648795762</v>
+        <v>1.023133858696474</v>
       </c>
       <c r="M21">
-        <v>1.03035288692605</v>
+        <v>1.03076539862307</v>
       </c>
       <c r="N21">
-        <v>1.009937899700455</v>
+        <v>1.012733261830123</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032594620450682</v>
+        <v>1.032921099357583</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042987283442718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041379672197711</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023814745136286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9865813417076031</v>
+        <v>0.9874647778761927</v>
       </c>
       <c r="D22">
-        <v>1.02897041749904</v>
+        <v>1.02684326923132</v>
       </c>
       <c r="E22">
-        <v>1.004751048423325</v>
+        <v>1.005517562898232</v>
       </c>
       <c r="F22">
-        <v>1.012822390703988</v>
+        <v>1.013428051550442</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047899891918685</v>
+        <v>1.047302341328315</v>
       </c>
       <c r="J22">
-        <v>1.01792200408659</v>
+        <v>1.018765187157411</v>
       </c>
       <c r="K22">
-        <v>1.043989012074543</v>
+        <v>1.041901074385945</v>
       </c>
       <c r="L22">
-        <v>1.020228970034107</v>
+        <v>1.020980502535225</v>
       </c>
       <c r="M22">
-        <v>1.02814404245669</v>
+        <v>1.028738108448955</v>
       </c>
       <c r="N22">
-        <v>1.009084178114721</v>
+        <v>1.012405984672168</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03084644651221</v>
+        <v>1.031316616164745</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042242160349721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040781335554642</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023660244471582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9886347165137968</v>
+        <v>0.9893509240022182</v>
       </c>
       <c r="D23">
-        <v>1.029822115038516</v>
+        <v>1.027577917990764</v>
       </c>
       <c r="E23">
-        <v>1.006358915297177</v>
+        <v>1.006980367278978</v>
       </c>
       <c r="F23">
-        <v>1.014332062785315</v>
+        <v>1.014823066892973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048435941305098</v>
+        <v>1.047749317758349</v>
       </c>
       <c r="J23">
-        <v>1.019209974026619</v>
+        <v>1.019894554417833</v>
       </c>
       <c r="K23">
-        <v>1.044525382365807</v>
+        <v>1.042321521164652</v>
       </c>
       <c r="L23">
-        <v>1.02149552705722</v>
+        <v>1.022105160892967</v>
       </c>
       <c r="M23">
-        <v>1.029318483212443</v>
+        <v>1.029800338848502</v>
       </c>
       <c r="N23">
-        <v>1.009535151855545</v>
+        <v>1.012529834670499</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031775949677308</v>
+        <v>1.032157310691784</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042611859167725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041068122030611</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02373699489342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9965161993066626</v>
+        <v>0.9967055594219936</v>
       </c>
       <c r="D24">
-        <v>1.033137153472695</v>
+        <v>1.030469792726498</v>
       </c>
       <c r="E24">
-        <v>1.012552190437253</v>
+        <v>1.012721591252063</v>
       </c>
       <c r="F24">
-        <v>1.020155148666251</v>
+        <v>1.020287813738415</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050479071113663</v>
+        <v>1.049495534095774</v>
       </c>
       <c r="J24">
-        <v>1.024149017967824</v>
+        <v>1.024331018584607</v>
       </c>
       <c r="K24">
-        <v>1.046606303663756</v>
+        <v>1.043982150164398</v>
       </c>
       <c r="L24">
-        <v>1.026362403838414</v>
+        <v>1.026528924877961</v>
       </c>
       <c r="M24">
-        <v>1.033837326854321</v>
+        <v>1.033967779643604</v>
       </c>
       <c r="N24">
-        <v>1.011269863687081</v>
+        <v>1.013229548396301</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035352346303555</v>
+        <v>1.035455591676441</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044075721382558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042234067434546</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024040002153794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005272784341293</v>
+        <v>1.005178669817529</v>
       </c>
       <c r="D25">
-        <v>1.036860910813443</v>
+        <v>1.03379588296076</v>
       </c>
       <c r="E25">
-        <v>1.019469672480397</v>
+        <v>1.019404682911162</v>
       </c>
       <c r="F25">
-        <v>1.0266772414844</v>
+        <v>1.026622210567905</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052705895107742</v>
+        <v>1.051506192877285</v>
       </c>
       <c r="J25">
-        <v>1.029623991985292</v>
+        <v>1.029532999177606</v>
       </c>
       <c r="K25">
-        <v>1.048912741060643</v>
+        <v>1.045891273977087</v>
       </c>
       <c r="L25">
-        <v>1.031773082305854</v>
+        <v>1.031709053319572</v>
       </c>
       <c r="M25">
-        <v>1.038875076229173</v>
+        <v>1.038820844273802</v>
       </c>
       <c r="N25">
-        <v>1.013191688815799</v>
+        <v>1.014628869717551</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039339404723601</v>
+        <v>1.039296483696533</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045703627773179</v>
+        <v>1.043580759195228</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024385254441422</v>
       </c>
     </row>
   </sheetData>
